--- a/tienPat.xlsx
+++ b/tienPat.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="28515" windowHeight="12585"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="24240" windowHeight="12585"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -16,16 +16,34 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="7">
   <si>
     <t>---</t>
+  </si>
+  <si>
+    <t>Victoires</t>
+  </si>
+  <si>
+    <t>Défaites</t>
+  </si>
+  <si>
+    <t>Parties Nulles</t>
+  </si>
+  <si>
+    <t>vs. Moyen (65%)</t>
+  </si>
+  <si>
+    <t>vs. Courageux (50%)</t>
+  </si>
+  <si>
+    <t>vs. Prudent (80%)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -33,16 +51,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -50,12 +81,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -68,6 +122,2905 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-CA"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$B$1:$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>vs. Courageux (50%) Victoires</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Feuil1!$A$3:$A$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$B$3:$B$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>465</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>466</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>464</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>463</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>423</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>462</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>422</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>446</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>435</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>429</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>404</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>401</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>402</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>378</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>401</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>399</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>387</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>387</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>364</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>376</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>369</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>374</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>362</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>378</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>378</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>362</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>386</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>354</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>344</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>326</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$C$1:$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>vs. Courageux (50%) Défaites</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Feuil1!$A$3:$A$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$C$3:$C$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>433</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>433</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>469</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>431</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>459</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>407</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>439</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>468</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>438</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>445</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>472</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>456</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>462</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>477</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>486</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>482</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>487</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>517</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>485</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>504</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>509</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>514</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>538</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>528</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>524</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>537</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>555</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>556</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>557</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>543</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>551</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>537</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>553</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>557</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>549</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>591</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$D$1:$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>vs. Courageux (50%) Parties Nulles</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Feuil1!$A$3:$A$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$D$3:$D$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>83</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="65655168"/>
+        <c:axId val="65656704"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="65655168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="65656704"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="65656704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="65655168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-CA"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$B$45:$B$46</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>vs. Moyen (65%) Victoires</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Feuil1!$A$47:$A$87</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$B$47:$B$87</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>511</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>528</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>526</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>526</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>511</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>546</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>515</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>518</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>535</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>523</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>506</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>518</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>489</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>504</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>508</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>499</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>473</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>465</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>474</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>459</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>433</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>445</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>455</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>411</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>441</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>415</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>419</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>385</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>372</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>388</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>373</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>386</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>399</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>389</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>407</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>404</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>397</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$C$45:$C$46</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>vs. Moyen (65%) Défaites</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Feuil1!$A$47:$A$87</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$C$47:$C$87</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>417</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>407</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>386</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>406</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>379</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>387</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>389</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>387</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>377</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>382</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>399</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>388</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>407</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>413</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>404</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>409</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>428</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>448</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>404</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>448</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>464</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>441</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>466</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>502</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>528</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>518</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>492</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>485</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>487</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>480</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$D$45:$D$46</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>vs. Moyen (65%) Parties Nulles</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Feuil1!$A$47:$A$87</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$D$47:$D$87</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>123</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="65213952"/>
+        <c:axId val="65251200"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="65213952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="65251200"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="65251200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="65213952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-CA"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$B$89:$B$90</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>vs. Prudent (80%) Victoires</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Feuil1!$A$91:$A$131</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$B$91:$B$131</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>535</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>553</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>569</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>565</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>548</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>585</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>562</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>551</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>542</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>553</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>551</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>542</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>578</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>565</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>524</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>536</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>536</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>529</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>519</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>526</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>494</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>498</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>501</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>487</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>457</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>483</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>473</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>434</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>455</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>456</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>447</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>467</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>435</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>437</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>434</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>419</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>451</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$C$89:$C$90</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>vs. Prudent (80%) Défaites</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Feuil1!$A$91:$A$131</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$C$91:$C$131</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>371</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>362</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>347</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>349</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>346</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>379</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>371</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>371</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>382</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>371</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>373</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>404</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>402</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>411</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>436</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>415</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>403</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>435</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>413</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>436</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>439</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>426</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>446</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>438</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>441</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>477</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>432</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$D$89:$D$90</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>vs. Prudent (80%) Parties Nulles</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Feuil1!$A$91:$A$131</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$D$91:$D$131</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>117</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="140414976"/>
+        <c:axId val="126763776"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="140414976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="126763776"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="126763776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="140414976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>423862</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Graphique 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>423861</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>542924</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Graphique 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>409574</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Graphique 7"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -357,1760 +3310,1833 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D125"/>
+  <dimension ref="A1:D131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D125"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>40</v>
       </c>
-      <c r="B1">
+      <c r="B3" s="3">
         <v>465</v>
       </c>
-      <c r="C1">
+      <c r="C3" s="3">
         <v>433</v>
       </c>
-      <c r="D1">
+      <c r="D3" s="3">
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>41</v>
       </c>
-      <c r="B2">
+      <c r="B4" s="3">
         <v>466</v>
       </c>
-      <c r="C2">
+      <c r="C4" s="3">
         <v>440</v>
       </c>
-      <c r="D2">
+      <c r="D4" s="3">
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>42</v>
       </c>
-      <c r="B3">
+      <c r="B5" s="3">
         <v>464</v>
       </c>
-      <c r="C3">
+      <c r="C5" s="3">
         <v>433</v>
       </c>
-      <c r="D3">
+      <c r="D5" s="3">
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>43</v>
       </c>
-      <c r="B4">
+      <c r="B6" s="3">
         <v>420</v>
       </c>
-      <c r="C4">
+      <c r="C6" s="3">
         <v>469</v>
       </c>
-      <c r="D4">
+      <c r="D6" s="3">
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>44</v>
       </c>
-      <c r="B5">
+      <c r="B7" s="3">
         <v>463</v>
       </c>
-      <c r="C5">
+      <c r="C7" s="3">
         <v>431</v>
       </c>
-      <c r="D5">
+      <c r="D7" s="3">
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>45</v>
       </c>
-      <c r="B6">
+      <c r="B8" s="3">
         <v>423</v>
       </c>
-      <c r="C6">
+      <c r="C8" s="3">
         <v>459</v>
       </c>
-      <c r="D6">
+      <c r="D8" s="3">
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <v>46</v>
       </c>
-      <c r="B7">
+      <c r="B9" s="3">
         <v>462</v>
       </c>
-      <c r="C7">
+      <c r="C9" s="3">
         <v>407</v>
       </c>
-      <c r="D7">
+      <c r="D9" s="3">
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>47</v>
       </c>
-      <c r="B8">
+      <c r="B10" s="3">
         <v>440</v>
       </c>
-      <c r="C8">
+      <c r="C10" s="3">
         <v>439</v>
       </c>
-      <c r="D8">
+      <c r="D10" s="3">
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <v>48</v>
       </c>
-      <c r="B9">
+      <c r="B11" s="3">
         <v>422</v>
       </c>
-      <c r="C9">
+      <c r="C11" s="3">
         <v>468</v>
       </c>
-      <c r="D9">
+      <c r="D11" s="3">
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <v>49</v>
       </c>
-      <c r="B10">
+      <c r="B12" s="3">
         <v>446</v>
       </c>
-      <c r="C10">
+      <c r="C12" s="3">
         <v>438</v>
       </c>
-      <c r="D10">
+      <c r="D12" s="3">
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <v>50</v>
       </c>
-      <c r="B11">
+      <c r="B13" s="3">
         <v>450</v>
       </c>
-      <c r="C11">
+      <c r="C13" s="3">
         <v>445</v>
       </c>
-      <c r="D11">
+      <c r="D13" s="3">
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <v>51</v>
       </c>
-      <c r="B12">
+      <c r="B14" s="3">
         <v>450</v>
       </c>
-      <c r="C12">
+      <c r="C14" s="3">
         <v>430</v>
       </c>
-      <c r="D12">
+      <c r="D14" s="3">
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
         <v>52</v>
       </c>
-      <c r="B13">
+      <c r="B15" s="3">
         <v>435</v>
       </c>
-      <c r="C13">
+      <c r="C15" s="3">
         <v>472</v>
       </c>
-      <c r="D13">
+      <c r="D15" s="3">
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
         <v>53</v>
       </c>
-      <c r="B14">
+      <c r="B16" s="3">
         <v>429</v>
       </c>
-      <c r="C14">
+      <c r="C16" s="3">
         <v>456</v>
       </c>
-      <c r="D14">
+      <c r="D16" s="3">
         <v>115</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
         <v>54</v>
       </c>
-      <c r="B15">
+      <c r="B17" s="3">
         <v>410</v>
       </c>
-      <c r="C15">
+      <c r="C17" s="3">
         <v>462</v>
       </c>
-      <c r="D15">
+      <c r="D17" s="3">
         <v>128</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
         <v>55</v>
       </c>
-      <c r="B16">
+      <c r="B18" s="3">
         <v>404</v>
       </c>
-      <c r="C16">
+      <c r="C18" s="3">
         <v>477</v>
       </c>
-      <c r="D16">
+      <c r="D18" s="3">
         <v>119</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
         <v>56</v>
       </c>
-      <c r="B17">
+      <c r="B19" s="3">
         <v>401</v>
       </c>
-      <c r="C17">
+      <c r="C19" s="3">
         <v>486</v>
       </c>
-      <c r="D17">
+      <c r="D19" s="3">
         <v>113</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
         <v>57</v>
       </c>
-      <c r="B18">
+      <c r="B20" s="3">
         <v>402</v>
       </c>
-      <c r="C18">
+      <c r="C20" s="3">
         <v>482</v>
       </c>
-      <c r="D18">
+      <c r="D20" s="3">
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
         <v>58</v>
       </c>
-      <c r="B19">
+      <c r="B21" s="3">
         <v>392</v>
       </c>
-      <c r="C19">
+      <c r="C21" s="3">
         <v>487</v>
       </c>
-      <c r="D19">
+      <c r="D21" s="3">
         <v>121</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
         <v>59</v>
       </c>
-      <c r="B20">
+      <c r="B22" s="3">
         <v>378</v>
       </c>
-      <c r="C20">
+      <c r="C22" s="3">
         <v>517</v>
       </c>
-      <c r="D20">
+      <c r="D22" s="3">
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
         <v>60</v>
       </c>
-      <c r="B21">
+      <c r="B23" s="3">
         <v>401</v>
       </c>
-      <c r="C21">
+      <c r="C23" s="3">
         <v>485</v>
       </c>
-      <c r="D21">
+      <c r="D23" s="3">
         <v>114</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
         <v>61</v>
       </c>
-      <c r="B22">
+      <c r="B24" s="3">
         <v>399</v>
       </c>
-      <c r="C22">
+      <c r="C24" s="3">
         <v>504</v>
       </c>
-      <c r="D22">
+      <c r="D24" s="3">
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
         <v>62</v>
       </c>
-      <c r="B23">
+      <c r="B25" s="3">
         <v>387</v>
       </c>
-      <c r="C23">
+      <c r="C25" s="3">
         <v>509</v>
       </c>
-      <c r="D23">
+      <c r="D25" s="3">
         <v>104</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
         <v>63</v>
       </c>
-      <c r="B24">
+      <c r="B26" s="3">
         <v>387</v>
       </c>
-      <c r="C24">
+      <c r="C26" s="3">
         <v>514</v>
       </c>
-      <c r="D24">
+      <c r="D26" s="3">
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
         <v>64</v>
       </c>
-      <c r="B25">
+      <c r="B27" s="3">
         <v>364</v>
       </c>
-      <c r="C25">
+      <c r="C27" s="3">
         <v>538</v>
       </c>
-      <c r="D25">
+      <c r="D27" s="3">
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
         <v>65</v>
       </c>
-      <c r="B26">
+      <c r="B28" s="3">
         <v>376</v>
       </c>
-      <c r="C26">
+      <c r="C28" s="3">
         <v>528</v>
       </c>
-      <c r="D26">
+      <c r="D28" s="3">
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
         <v>66</v>
       </c>
-      <c r="B27">
+      <c r="B29" s="3">
         <v>369</v>
       </c>
-      <c r="C27">
+      <c r="C29" s="3">
         <v>524</v>
       </c>
-      <c r="D27">
+      <c r="D29" s="3">
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
         <v>67</v>
       </c>
-      <c r="B28">
+      <c r="B30" s="3">
         <v>374</v>
       </c>
-      <c r="C28">
+      <c r="C30" s="3">
         <v>537</v>
       </c>
-      <c r="D28">
+      <c r="D30" s="3">
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
         <v>68</v>
       </c>
-      <c r="B29">
+      <c r="B31" s="3">
         <v>365</v>
       </c>
-      <c r="C29">
+      <c r="C31" s="3">
         <v>555</v>
       </c>
-      <c r="D29">
+      <c r="D31" s="3">
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
         <v>69</v>
       </c>
-      <c r="B30">
+      <c r="B32" s="3">
         <v>362</v>
       </c>
-      <c r="C30">
+      <c r="C32" s="3">
         <v>556</v>
       </c>
-      <c r="D30">
+      <c r="D32" s="3">
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
         <v>70</v>
       </c>
-      <c r="B31">
+      <c r="B33" s="3">
         <v>352</v>
       </c>
-      <c r="C31">
+      <c r="C33" s="3">
         <v>550</v>
       </c>
-      <c r="D31">
+      <c r="D33" s="3">
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
         <v>71</v>
       </c>
-      <c r="B32">
+      <c r="B34" s="3">
         <v>353</v>
       </c>
-      <c r="C32">
+      <c r="C34" s="3">
         <v>557</v>
       </c>
-      <c r="D32">
+      <c r="D34" s="3">
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
         <v>72</v>
       </c>
-      <c r="B33">
+      <c r="B35" s="3">
         <v>378</v>
       </c>
-      <c r="C33">
+      <c r="C35" s="3">
         <v>543</v>
       </c>
-      <c r="D33">
+      <c r="D35" s="3">
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
         <v>73</v>
       </c>
-      <c r="B34">
+      <c r="B36" s="3">
         <v>378</v>
       </c>
-      <c r="C34">
+      <c r="C36" s="3">
         <v>525</v>
       </c>
-      <c r="D34">
+      <c r="D36" s="3">
         <v>97</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
         <v>74</v>
       </c>
-      <c r="B35">
+      <c r="B37" s="3">
         <v>362</v>
       </c>
-      <c r="C35">
+      <c r="C37" s="3">
         <v>551</v>
       </c>
-      <c r="D35">
+      <c r="D37" s="3">
         <v>87</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
         <v>75</v>
       </c>
-      <c r="B36">
+      <c r="B38" s="3">
         <v>386</v>
       </c>
-      <c r="C36">
+      <c r="C38" s="3">
         <v>537</v>
       </c>
-      <c r="D36">
+      <c r="D38" s="3">
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
         <v>76</v>
       </c>
-      <c r="B37">
+      <c r="B39" s="3">
         <v>370</v>
       </c>
-      <c r="C37">
+      <c r="C39" s="3">
         <v>553</v>
       </c>
-      <c r="D37">
+      <c r="D39" s="3">
         <v>77</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
         <v>77</v>
       </c>
-      <c r="B38">
+      <c r="B40" s="3">
         <v>354</v>
       </c>
-      <c r="C38">
+      <c r="C40" s="3">
         <v>557</v>
       </c>
-      <c r="D38">
+      <c r="D40" s="3">
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
         <v>78</v>
       </c>
-      <c r="B39">
+      <c r="B41" s="3">
         <v>365</v>
       </c>
-      <c r="C39">
+      <c r="C41" s="3">
         <v>549</v>
       </c>
-      <c r="D39">
+      <c r="D41" s="3">
         <v>86</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
         <v>79</v>
       </c>
-      <c r="B40">
+      <c r="B42" s="3">
         <v>344</v>
       </c>
-      <c r="C40">
+      <c r="C42" s="3">
         <v>570</v>
       </c>
-      <c r="D40">
+      <c r="D42" s="3">
         <v>86</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
         <v>80</v>
       </c>
-      <c r="B41">
+      <c r="B43" s="3">
         <v>326</v>
       </c>
-      <c r="C41">
+      <c r="C43" s="3">
         <v>591</v>
       </c>
-      <c r="D41">
+      <c r="D43" s="3">
         <v>83</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" t="s">
         <v>0</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C44" t="s">
         <v>0</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D44" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="3"/>
+      <c r="B46" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
         <v>40</v>
       </c>
-      <c r="B43">
+      <c r="B47" s="3">
         <v>511</v>
       </c>
-      <c r="C43">
+      <c r="C47" s="3">
         <v>417</v>
       </c>
-      <c r="D43">
+      <c r="D47" s="3">
         <v>72</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
         <v>41</v>
       </c>
-      <c r="B44">
+      <c r="B48" s="3">
         <v>528</v>
       </c>
-      <c r="C44">
+      <c r="C48" s="3">
         <v>407</v>
       </c>
-      <c r="D44">
+      <c r="D48" s="3">
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
         <v>42</v>
       </c>
-      <c r="B45">
+      <c r="B49" s="3">
         <v>526</v>
       </c>
-      <c r="C45">
+      <c r="C49" s="3">
         <v>386</v>
       </c>
-      <c r="D45">
+      <c r="D49" s="3">
         <v>88</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
         <v>43</v>
       </c>
-      <c r="B46">
+      <c r="B50" s="3">
         <v>526</v>
       </c>
-      <c r="C46">
+      <c r="C50" s="3">
         <v>406</v>
       </c>
-      <c r="D46">
+      <c r="D50" s="3">
         <v>68</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
         <v>44</v>
       </c>
-      <c r="B47">
+      <c r="B51" s="3">
         <v>511</v>
       </c>
-      <c r="C47">
+      <c r="C51" s="3">
         <v>379</v>
       </c>
-      <c r="D47">
+      <c r="D51" s="3">
         <v>110</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
         <v>45</v>
       </c>
-      <c r="B48">
+      <c r="B52" s="3">
         <v>546</v>
       </c>
-      <c r="C48">
+      <c r="C52" s="3">
         <v>387</v>
       </c>
-      <c r="D48">
+      <c r="D52" s="3">
         <v>67</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
         <v>46</v>
       </c>
-      <c r="B49">
+      <c r="B53" s="3">
         <v>515</v>
       </c>
-      <c r="C49">
+      <c r="C53" s="3">
         <v>389</v>
       </c>
-      <c r="D49">
+      <c r="D53" s="3">
         <v>96</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
         <v>47</v>
       </c>
-      <c r="B50">
+      <c r="B54" s="3">
         <v>518</v>
       </c>
-      <c r="C50">
+      <c r="C54" s="3">
         <v>387</v>
       </c>
-      <c r="D50">
+      <c r="D54" s="3">
         <v>95</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
         <v>48</v>
       </c>
-      <c r="B51">
+      <c r="B55" s="3">
         <v>535</v>
       </c>
-      <c r="C51">
+      <c r="C55" s="3">
         <v>377</v>
       </c>
-      <c r="D51">
+      <c r="D55" s="3">
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
         <v>49</v>
       </c>
-      <c r="B52">
+      <c r="B56" s="3">
         <v>523</v>
       </c>
-      <c r="C52">
+      <c r="C56" s="3">
         <v>382</v>
       </c>
-      <c r="D52">
+      <c r="D56" s="3">
         <v>95</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
         <v>50</v>
       </c>
-      <c r="B53">
+      <c r="B57" s="3">
         <v>506</v>
       </c>
-      <c r="C53">
+      <c r="C57" s="3">
         <v>390</v>
       </c>
-      <c r="D53">
+      <c r="D57" s="3">
         <v>104</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
         <v>51</v>
       </c>
-      <c r="B54">
+      <c r="B58" s="3">
         <v>518</v>
       </c>
-      <c r="C54">
+      <c r="C58" s="3">
         <v>390</v>
       </c>
-      <c r="D54">
+      <c r="D58" s="3">
         <v>92</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
         <v>52</v>
       </c>
-      <c r="B55">
+      <c r="B59" s="3">
         <v>489</v>
       </c>
-      <c r="C55">
+      <c r="C59" s="3">
         <v>399</v>
       </c>
-      <c r="D55">
+      <c r="D59" s="3">
         <v>112</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
         <v>53</v>
       </c>
-      <c r="B56">
+      <c r="B60" s="3">
         <v>504</v>
       </c>
-      <c r="C56">
+      <c r="C60" s="3">
         <v>388</v>
       </c>
-      <c r="D56">
+      <c r="D60" s="3">
         <v>108</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
         <v>54</v>
       </c>
-      <c r="B57">
+      <c r="B61" s="3">
         <v>510</v>
       </c>
-      <c r="C57">
+      <c r="C61" s="3">
         <v>407</v>
       </c>
-      <c r="D57">
+      <c r="D61" s="3">
         <v>83</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
         <v>55</v>
       </c>
-      <c r="B58">
+      <c r="B62" s="3">
         <v>508</v>
       </c>
-      <c r="C58">
+      <c r="C62" s="3">
         <v>398</v>
       </c>
-      <c r="D58">
+      <c r="D62" s="3">
         <v>94</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
         <v>56</v>
       </c>
-      <c r="B59">
+      <c r="B63" s="3">
         <v>499</v>
       </c>
-      <c r="C59">
+      <c r="C63" s="3">
         <v>413</v>
       </c>
-      <c r="D59">
+      <c r="D63" s="3">
         <v>88</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
         <v>57</v>
       </c>
-      <c r="B60">
+      <c r="B64" s="3">
         <v>473</v>
       </c>
-      <c r="C60">
+      <c r="C64" s="3">
         <v>404</v>
       </c>
-      <c r="D60">
+      <c r="D64" s="3">
         <v>123</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
         <v>58</v>
       </c>
-      <c r="B61">
+      <c r="B65" s="3">
         <v>465</v>
       </c>
-      <c r="C61">
+      <c r="C65" s="3">
         <v>409</v>
       </c>
-      <c r="D61">
+      <c r="D65" s="3">
         <v>126</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
         <v>59</v>
       </c>
-      <c r="B62">
+      <c r="B66" s="3">
         <v>474</v>
       </c>
-      <c r="C62">
+      <c r="C66" s="3">
         <v>410</v>
       </c>
-      <c r="D62">
+      <c r="D66" s="3">
         <v>116</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
         <v>60</v>
       </c>
-      <c r="B63">
+      <c r="B67" s="3">
         <v>459</v>
       </c>
-      <c r="C63">
+      <c r="C67" s="3">
         <v>428</v>
       </c>
-      <c r="D63">
+      <c r="D67" s="3">
         <v>113</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
         <v>61</v>
       </c>
-      <c r="B64">
+      <c r="B68" s="3">
         <v>443</v>
       </c>
-      <c r="C64">
+      <c r="C68" s="3">
         <v>443</v>
       </c>
-      <c r="D64">
+      <c r="D68" s="3">
         <v>114</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
         <v>62</v>
       </c>
-      <c r="B65">
+      <c r="B69" s="3">
         <v>433</v>
       </c>
-      <c r="C65">
+      <c r="C69" s="3">
         <v>448</v>
       </c>
-      <c r="D65">
+      <c r="D69" s="3">
         <v>119</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
         <v>63</v>
       </c>
-      <c r="B66">
+      <c r="B70" s="3">
         <v>445</v>
       </c>
-      <c r="C66">
+      <c r="C70" s="3">
         <v>443</v>
       </c>
-      <c r="D66">
+      <c r="D70" s="3">
         <v>112</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
         <v>64</v>
       </c>
-      <c r="B67">
+      <c r="B71" s="3">
         <v>490</v>
       </c>
-      <c r="C67">
+      <c r="C71" s="3">
         <v>404</v>
       </c>
-      <c r="D67">
+      <c r="D71" s="3">
         <v>106</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
         <v>65</v>
       </c>
-      <c r="B68">
+      <c r="B72" s="3">
         <v>455</v>
       </c>
-      <c r="C68">
+      <c r="C72" s="3">
         <v>448</v>
       </c>
-      <c r="D68">
+      <c r="D72" s="3">
         <v>97</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
         <v>66</v>
       </c>
-      <c r="B69">
+      <c r="B73" s="3">
         <v>411</v>
       </c>
-      <c r="C69">
+      <c r="C73" s="3">
         <v>464</v>
       </c>
-      <c r="D69">
+      <c r="D73" s="3">
         <v>125</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
         <v>67</v>
       </c>
-      <c r="B70">
+      <c r="B74" s="3">
         <v>441</v>
       </c>
-      <c r="C70">
+      <c r="C74" s="3">
         <v>441</v>
       </c>
-      <c r="D70">
+      <c r="D74" s="3">
         <v>118</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
         <v>68</v>
       </c>
-      <c r="B71">
+      <c r="B75" s="3">
         <v>415</v>
       </c>
-      <c r="C71">
+      <c r="C75" s="3">
         <v>466</v>
       </c>
-      <c r="D71">
+      <c r="D75" s="3">
         <v>119</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
         <v>69</v>
       </c>
-      <c r="B72">
+      <c r="B76" s="3">
         <v>419</v>
       </c>
-      <c r="C72">
+      <c r="C76" s="3">
         <v>490</v>
       </c>
-      <c r="D72">
+      <c r="D76" s="3">
         <v>91</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
         <v>70</v>
       </c>
-      <c r="B73">
+      <c r="B77" s="3">
         <v>385</v>
       </c>
-      <c r="C73">
+      <c r="C77" s="3">
         <v>490</v>
       </c>
-      <c r="D73">
+      <c r="D77" s="3">
         <v>125</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
         <v>71</v>
       </c>
-      <c r="B74">
+      <c r="B78" s="3">
         <v>372</v>
       </c>
-      <c r="C74">
+      <c r="C78" s="3">
         <v>510</v>
       </c>
-      <c r="D74">
+      <c r="D78" s="3">
         <v>118</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
         <v>72</v>
       </c>
-      <c r="B75">
+      <c r="B79" s="3">
         <v>388</v>
       </c>
-      <c r="C75">
+      <c r="C79" s="3">
         <v>502</v>
       </c>
-      <c r="D75">
+      <c r="D79" s="3">
         <v>110</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
         <v>73</v>
       </c>
-      <c r="B76">
+      <c r="B80" s="3">
         <v>373</v>
       </c>
-      <c r="C76">
+      <c r="C80" s="3">
         <v>528</v>
       </c>
-      <c r="D76">
+      <c r="D80" s="3">
         <v>99</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
         <v>74</v>
       </c>
-      <c r="B77">
+      <c r="B81" s="3">
         <v>386</v>
       </c>
-      <c r="C77">
+      <c r="C81" s="3">
         <v>510</v>
       </c>
-      <c r="D77">
+      <c r="D81" s="3">
         <v>104</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
         <v>75</v>
       </c>
-      <c r="B78">
+      <c r="B82" s="3">
         <v>380</v>
       </c>
-      <c r="C78">
+      <c r="C82" s="3">
         <v>518</v>
       </c>
-      <c r="D78">
+      <c r="D82" s="3">
         <v>102</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
         <v>76</v>
       </c>
-      <c r="B79">
+      <c r="B83" s="3">
         <v>399</v>
       </c>
-      <c r="C79">
+      <c r="C83" s="3">
         <v>492</v>
       </c>
-      <c r="D79">
+      <c r="D83" s="3">
         <v>109</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
         <v>77</v>
       </c>
-      <c r="B80">
+      <c r="B84" s="3">
         <v>389</v>
       </c>
-      <c r="C80">
+      <c r="C84" s="3">
         <v>500</v>
       </c>
-      <c r="D80">
+      <c r="D84" s="3">
         <v>111</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
         <v>78</v>
       </c>
-      <c r="B81">
+      <c r="B85" s="3">
         <v>407</v>
       </c>
-      <c r="C81">
+      <c r="C85" s="3">
         <v>485</v>
       </c>
-      <c r="D81">
+      <c r="D85" s="3">
         <v>108</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
         <v>79</v>
       </c>
-      <c r="B82">
+      <c r="B86" s="3">
         <v>404</v>
       </c>
-      <c r="C82">
+      <c r="C86" s="3">
         <v>487</v>
       </c>
-      <c r="D82">
+      <c r="D86" s="3">
         <v>109</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
         <v>80</v>
       </c>
-      <c r="B83">
+      <c r="B87" s="3">
         <v>397</v>
       </c>
-      <c r="C83">
+      <c r="C87" s="3">
         <v>480</v>
       </c>
-      <c r="D83">
+      <c r="D87" s="3">
         <v>123</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B84" t="s">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
         <v>0</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C88" t="s">
         <v>0</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D88" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="3"/>
+      <c r="B90" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
         <v>40</v>
       </c>
-      <c r="B85">
+      <c r="B91" s="3">
         <v>535</v>
       </c>
-      <c r="C85">
+      <c r="C91" s="3">
         <v>392</v>
       </c>
-      <c r="D85">
+      <c r="D91" s="3">
         <v>73</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
         <v>41</v>
       </c>
-      <c r="B86">
+      <c r="B92" s="3">
         <v>553</v>
       </c>
-      <c r="C86">
+      <c r="C92" s="3">
         <v>371</v>
       </c>
-      <c r="D86">
+      <c r="D92" s="3">
         <v>76</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
         <v>42</v>
       </c>
-      <c r="B87">
+      <c r="B93" s="3">
         <v>569</v>
       </c>
-      <c r="C87">
+      <c r="C93" s="3">
         <v>362</v>
       </c>
-      <c r="D87">
+      <c r="D93" s="3">
         <v>69</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
         <v>43</v>
       </c>
-      <c r="B88">
+      <c r="B94" s="3">
         <v>565</v>
       </c>
-      <c r="C88">
+      <c r="C94" s="3">
         <v>347</v>
       </c>
-      <c r="D88">
+      <c r="D94" s="3">
         <v>88</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
         <v>44</v>
       </c>
-      <c r="B89">
+      <c r="B95" s="3">
         <v>548</v>
       </c>
-      <c r="C89">
+      <c r="C95" s="3">
         <v>350</v>
       </c>
-      <c r="D89">
+      <c r="D95" s="3">
         <v>102</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
         <v>45</v>
       </c>
-      <c r="B90">
+      <c r="B96" s="3">
         <v>585</v>
       </c>
-      <c r="C90">
+      <c r="C96" s="3">
         <v>338</v>
       </c>
-      <c r="D90">
+      <c r="D96" s="3">
         <v>77</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
         <v>46</v>
       </c>
-      <c r="B91">
+      <c r="B97" s="3">
         <v>562</v>
       </c>
-      <c r="C91">
+      <c r="C97" s="3">
         <v>351</v>
       </c>
-      <c r="D91">
+      <c r="D97" s="3">
         <v>87</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
         <v>47</v>
       </c>
-      <c r="B92">
+      <c r="B98" s="3">
         <v>551</v>
       </c>
-      <c r="C92">
+      <c r="C98" s="3">
         <v>349</v>
       </c>
-      <c r="D92">
+      <c r="D98" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
         <v>48</v>
       </c>
-      <c r="B93">
+      <c r="B99" s="3">
         <v>542</v>
       </c>
-      <c r="C93">
+      <c r="C99" s="3">
         <v>353</v>
       </c>
-      <c r="D93">
+      <c r="D99" s="3">
         <v>105</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
         <v>49</v>
       </c>
-      <c r="B94">
+      <c r="B100" s="3">
         <v>553</v>
       </c>
-      <c r="C94">
+      <c r="C100" s="3">
         <v>370</v>
       </c>
-      <c r="D94">
+      <c r="D100" s="3">
         <v>77</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
         <v>50</v>
       </c>
-      <c r="B95">
+      <c r="B101" s="3">
         <v>551</v>
       </c>
-      <c r="C95">
+      <c r="C101" s="3">
         <v>346</v>
       </c>
-      <c r="D95">
+      <c r="D101" s="3">
         <v>103</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
         <v>51</v>
       </c>
-      <c r="B96">
+      <c r="B102" s="3">
         <v>560</v>
       </c>
-      <c r="C96">
+      <c r="C102" s="3">
         <v>353</v>
       </c>
-      <c r="D96">
+      <c r="D102" s="3">
         <v>87</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
         <v>52</v>
       </c>
-      <c r="B97">
+      <c r="B103" s="3">
         <v>542</v>
       </c>
-      <c r="C97">
+      <c r="C103" s="3">
         <v>352</v>
       </c>
-      <c r="D97">
+      <c r="D103" s="3">
         <v>106</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
         <v>53</v>
       </c>
-      <c r="B98">
+      <c r="B104" s="3">
         <v>578</v>
       </c>
-      <c r="C98">
+      <c r="C104" s="3">
         <v>325</v>
       </c>
-      <c r="D98">
+      <c r="D104" s="3">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="3">
         <v>54</v>
       </c>
-      <c r="B99">
+      <c r="B105" s="3">
         <v>565</v>
       </c>
-      <c r="C99">
+      <c r="C105" s="3">
         <v>356</v>
       </c>
-      <c r="D99">
+      <c r="D105" s="3">
         <v>79</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="3">
         <v>55</v>
       </c>
-      <c r="B100">
+      <c r="B106" s="3">
         <v>524</v>
       </c>
-      <c r="C100">
+      <c r="C106" s="3">
         <v>379</v>
       </c>
-      <c r="D100">
+      <c r="D106" s="3">
         <v>97</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="3">
         <v>56</v>
       </c>
-      <c r="B101">
+      <c r="B107" s="3">
         <v>536</v>
       </c>
-      <c r="C101">
+      <c r="C107" s="3">
         <v>357</v>
       </c>
-      <c r="D101">
+      <c r="D107" s="3">
         <v>107</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="3">
         <v>57</v>
       </c>
-      <c r="B102">
+      <c r="B108" s="3">
         <v>536</v>
       </c>
-      <c r="C102">
+      <c r="C108" s="3">
         <v>371</v>
       </c>
-      <c r="D102">
+      <c r="D108" s="3">
         <v>93</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="3">
         <v>58</v>
       </c>
-      <c r="B103">
+      <c r="B109" s="3">
         <v>530</v>
       </c>
-      <c r="C103">
+      <c r="C109" s="3">
         <v>371</v>
       </c>
-      <c r="D103">
+      <c r="D109" s="3">
         <v>99</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="3">
         <v>59</v>
       </c>
-      <c r="B104">
+      <c r="B110" s="3">
         <v>529</v>
       </c>
-      <c r="C104">
+      <c r="C110" s="3">
         <v>382</v>
       </c>
-      <c r="D104">
+      <c r="D110" s="3">
         <v>89</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="3">
         <v>60</v>
       </c>
-      <c r="B105">
+      <c r="B111" s="3">
         <v>519</v>
       </c>
-      <c r="C105">
+      <c r="C111" s="3">
         <v>371</v>
       </c>
-      <c r="D105">
+      <c r="D111" s="3">
         <v>110</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="3">
         <v>61</v>
       </c>
-      <c r="B106">
+      <c r="B112" s="3">
         <v>526</v>
       </c>
-      <c r="C106">
+      <c r="C112" s="3">
         <v>373</v>
       </c>
-      <c r="D106">
+      <c r="D112" s="3">
         <v>101</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="3">
         <v>62</v>
       </c>
-      <c r="B107">
+      <c r="B113" s="3">
         <v>494</v>
       </c>
-      <c r="C107">
+      <c r="C113" s="3">
         <v>384</v>
       </c>
-      <c r="D107">
+      <c r="D113" s="3">
         <v>122</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="3">
         <v>63</v>
       </c>
-      <c r="B108">
+      <c r="B114" s="3">
         <v>498</v>
       </c>
-      <c r="C108">
+      <c r="C114" s="3">
         <v>404</v>
       </c>
-      <c r="D108">
+      <c r="D114" s="3">
         <v>98</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="3">
         <v>64</v>
       </c>
-      <c r="B109">
+      <c r="B115" s="3">
         <v>501</v>
       </c>
-      <c r="C109">
+      <c r="C115" s="3">
         <v>402</v>
       </c>
-      <c r="D109">
+      <c r="D115" s="3">
         <v>97</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="3">
         <v>65</v>
       </c>
-      <c r="B110">
+      <c r="B116" s="3">
         <v>487</v>
       </c>
-      <c r="C110">
+      <c r="C116" s="3">
         <v>411</v>
       </c>
-      <c r="D110">
+      <c r="D116" s="3">
         <v>102</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="3">
         <v>66</v>
       </c>
-      <c r="B111">
+      <c r="B117" s="3">
         <v>457</v>
       </c>
-      <c r="C111">
+      <c r="C117" s="3">
         <v>436</v>
       </c>
-      <c r="D111">
+      <c r="D117" s="3">
         <v>107</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="3">
         <v>67</v>
       </c>
-      <c r="B112">
+      <c r="B118" s="3">
         <v>483</v>
       </c>
-      <c r="C112">
+      <c r="C118" s="3">
         <v>415</v>
       </c>
-      <c r="D112">
+      <c r="D118" s="3">
         <v>102</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="3">
         <v>68</v>
       </c>
-      <c r="B113">
+      <c r="B119" s="3">
         <v>473</v>
       </c>
-      <c r="C113">
+      <c r="C119" s="3">
         <v>403</v>
       </c>
-      <c r="D113">
+      <c r="D119" s="3">
         <v>124</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="3">
         <v>69</v>
       </c>
-      <c r="B114">
+      <c r="B120" s="3">
         <v>434</v>
       </c>
-      <c r="C114">
+      <c r="C120" s="3">
         <v>450</v>
       </c>
-      <c r="D114">
+      <c r="D120" s="3">
         <v>116</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="3">
         <v>70</v>
       </c>
-      <c r="B115">
+      <c r="B121" s="3">
         <v>455</v>
       </c>
-      <c r="C115">
+      <c r="C121" s="3">
         <v>435</v>
       </c>
-      <c r="D115">
+      <c r="D121" s="3">
         <v>110</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="3">
         <v>71</v>
       </c>
-      <c r="B116">
+      <c r="B122" s="3">
         <v>460</v>
       </c>
-      <c r="C116">
+      <c r="C122" s="3">
         <v>413</v>
       </c>
-      <c r="D116">
+      <c r="D122" s="3">
         <v>127</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="3">
         <v>72</v>
       </c>
-      <c r="B117">
+      <c r="B123" s="3">
         <v>456</v>
       </c>
-      <c r="C117">
+      <c r="C123" s="3">
         <v>436</v>
       </c>
-      <c r="D117">
+      <c r="D123" s="3">
         <v>108</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="3">
         <v>73</v>
       </c>
-      <c r="B118">
+      <c r="B124" s="3">
         <v>447</v>
       </c>
-      <c r="C118">
+      <c r="C124" s="3">
         <v>439</v>
       </c>
-      <c r="D118">
+      <c r="D124" s="3">
         <v>114</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="3">
         <v>74</v>
       </c>
-      <c r="B119">
+      <c r="B125" s="3">
         <v>467</v>
       </c>
-      <c r="C119">
+      <c r="C125" s="3">
         <v>426</v>
       </c>
-      <c r="D119">
+      <c r="D125" s="3">
         <v>107</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="3">
         <v>75</v>
       </c>
-      <c r="B120">
+      <c r="B126" s="3">
         <v>435</v>
       </c>
-      <c r="C120">
+      <c r="C126" s="3">
         <v>446</v>
       </c>
-      <c r="D120">
+      <c r="D126" s="3">
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="3">
         <v>76</v>
       </c>
-      <c r="B121">
+      <c r="B127" s="3">
         <v>437</v>
       </c>
-      <c r="C121">
+      <c r="C127" s="3">
         <v>438</v>
       </c>
-      <c r="D121">
+      <c r="D127" s="3">
         <v>125</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="3">
         <v>77</v>
       </c>
-      <c r="B122">
+      <c r="B128" s="3">
         <v>434</v>
       </c>
-      <c r="C122">
+      <c r="C128" s="3">
         <v>460</v>
       </c>
-      <c r="D122">
+      <c r="D128" s="3">
         <v>106</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="3">
         <v>78</v>
       </c>
-      <c r="B123">
+      <c r="B129" s="3">
         <v>443</v>
       </c>
-      <c r="C123">
+      <c r="C129" s="3">
         <v>441</v>
       </c>
-      <c r="D123">
+      <c r="D129" s="3">
         <v>116</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="3">
         <v>79</v>
       </c>
-      <c r="B124">
+      <c r="B130" s="3">
         <v>419</v>
       </c>
-      <c r="C124">
+      <c r="C130" s="3">
         <v>477</v>
       </c>
-      <c r="D124">
+      <c r="D130" s="3">
         <v>104</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="3">
         <v>80</v>
       </c>
-      <c r="B125">
+      <c r="B131" s="3">
         <v>451</v>
       </c>
-      <c r="C125">
+      <c r="C131" s="3">
         <v>432</v>
       </c>
-      <c r="D125">
+      <c r="D131" s="3">
         <v>117</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A89:D89"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A45:D45"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/tienPat.xlsx
+++ b/tienPat.xlsx
@@ -16,10 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="7">
-  <si>
-    <t>---</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="8">
   <si>
     <t>Victoires</t>
   </si>
@@ -37,6 +34,12 @@
   </si>
   <si>
     <t>vs. Prudent (80%)</t>
+  </si>
+  <si>
+    <t>Auteur: Patrick Lemay</t>
+  </si>
+  <si>
+    <t>Nb de Tests par IA: 1,000,000</t>
   </si>
 </sst>
 </file>
@@ -73,7 +76,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -96,19 +99,68 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -138,6 +190,79 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-CA" sz="1400" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Parties jouées par </a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-CA" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-CA" sz="1400" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>chaque nouvel IA </a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-CA" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-CA" sz="1400" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>contre l'ancien IA</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-CA" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-CA" sz="1400" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>"Courageux 50%"</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-CA" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.76169052732044862"/>
+          <c:y val="3.2634032634032632E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -149,7 +274,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$B$1:$B$2</c:f>
+              <c:f>Feuil1!$B$3:$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -163,7 +288,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Feuil1!$A$3:$A$43</c:f>
+              <c:f>(Feuil1!$A$5:$A$19,Feuil1!$E$5:$E$19,Feuil1!$I$5:$I$15)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -295,132 +420,132 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$B$3:$B$43</c:f>
+              <c:f>(Feuil1!$B$5:$B$19,Feuil1!$F$5:$F$19,Feuil1!$J$5:$J$15)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>465</c:v>
+                  <c:v>481801</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>466</c:v>
+                  <c:v>478609</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>464</c:v>
+                  <c:v>474632</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>420</c:v>
+                  <c:v>471335</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>463</c:v>
+                  <c:v>467085</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>423</c:v>
+                  <c:v>459505</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>462</c:v>
+                  <c:v>455172</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>440</c:v>
+                  <c:v>450583</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>422</c:v>
+                  <c:v>446897</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>446</c:v>
+                  <c:v>443087</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>450</c:v>
+                  <c:v>443925</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>450</c:v>
+                  <c:v>441300</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>435</c:v>
+                  <c:v>435794</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>429</c:v>
+                  <c:v>432624</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>410</c:v>
+                  <c:v>424531</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>404</c:v>
+                  <c:v>419966</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>401</c:v>
+                  <c:v>417234</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>402</c:v>
+                  <c:v>413618</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>392</c:v>
+                  <c:v>411225</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>378</c:v>
+                  <c:v>408275</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>401</c:v>
+                  <c:v>401467</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>399</c:v>
+                  <c:v>397420</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>387</c:v>
+                  <c:v>392921</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>387</c:v>
+                  <c:v>387246</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>364</c:v>
+                  <c:v>387282</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>376</c:v>
+                  <c:v>385432</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>369</c:v>
+                  <c:v>379124</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>374</c:v>
+                  <c:v>378025</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>365</c:v>
+                  <c:v>376481</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>362</c:v>
+                  <c:v>364144</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>352</c:v>
+                  <c:v>364263</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>353</c:v>
+                  <c:v>359824</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>378</c:v>
+                  <c:v>359517</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>378</c:v>
+                  <c:v>358382</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>362</c:v>
+                  <c:v>358362</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>386</c:v>
+                  <c:v>358845</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>370</c:v>
+                  <c:v>358524</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>354</c:v>
+                  <c:v>358113</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>365</c:v>
+                  <c:v>357944</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>344</c:v>
+                  <c:v>358750</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>326</c:v>
+                  <c:v>359407</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -432,7 +557,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$C$1:$C$2</c:f>
+              <c:f>Feuil1!$C$3:$C$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -446,7 +571,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Feuil1!$A$3:$A$43</c:f>
+              <c:f>(Feuil1!$A$5:$A$19,Feuil1!$E$5:$E$19,Feuil1!$I$5:$I$15)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -578,132 +703,132 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$C$3:$C$43</c:f>
+              <c:f>(Feuil1!$C$5:$C$19,Feuil1!$G$5:$G$19,Feuil1!$K$5:$K$15)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>433</c:v>
+                  <c:v>415385</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>440</c:v>
+                  <c:v>417640</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>433</c:v>
+                  <c:v>418700</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>469</c:v>
+                  <c:v>420555</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>431</c:v>
+                  <c:v>422268</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>459</c:v>
+                  <c:v>425006</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>407</c:v>
+                  <c:v>427529</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>439</c:v>
+                  <c:v>432005</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>468</c:v>
+                  <c:v>435083</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>438</c:v>
+                  <c:v>438325</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>445</c:v>
+                  <c:v>438000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>430</c:v>
+                  <c:v>441654</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>472</c:v>
+                  <c:v>448528</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>456</c:v>
+                  <c:v>452917</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>462</c:v>
+                  <c:v>462956</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>477</c:v>
+                  <c:v>469107</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>486</c:v>
+                  <c:v>472447</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>482</c:v>
+                  <c:v>477874</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>487</c:v>
+                  <c:v>480828</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>517</c:v>
+                  <c:v>484349</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>485</c:v>
+                  <c:v>493489</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>504</c:v>
+                  <c:v>499270</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>509</c:v>
+                  <c:v>505166</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>514</c:v>
+                  <c:v>512404</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>538</c:v>
+                  <c:v>512240</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>528</c:v>
+                  <c:v>514402</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>524</c:v>
+                  <c:v>523119</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>537</c:v>
+                  <c:v>524592</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>555</c:v>
+                  <c:v>526851</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>556</c:v>
+                  <c:v>543029</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>550</c:v>
+                  <c:v>542579</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>557</c:v>
+                  <c:v>549414</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>543</c:v>
+                  <c:v>549510</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>525</c:v>
+                  <c:v>550914</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>551</c:v>
+                  <c:v>550474</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>537</c:v>
+                  <c:v>550936</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>553</c:v>
+                  <c:v>551321</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>557</c:v>
+                  <c:v>551295</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>549</c:v>
+                  <c:v>551746</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>570</c:v>
+                  <c:v>550234</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>591</c:v>
+                  <c:v>550231</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -715,7 +840,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$D$1:$D$2</c:f>
+              <c:f>Feuil1!$D$3:$D$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -729,7 +854,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Feuil1!$A$3:$A$43</c:f>
+              <c:f>(Feuil1!$A$5:$A$19,Feuil1!$E$5:$E$19,Feuil1!$I$5:$I$15)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -861,132 +986,132 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$D$3:$D$43</c:f>
+              <c:f>(Feuil1!$D$5:$D$19,Feuil1!$H$5:$H$19,Feuil1!$L$5:$L$15)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>102</c:v>
+                  <c:v>102814</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>94</c:v>
+                  <c:v>103751</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>103</c:v>
+                  <c:v>106668</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>111</c:v>
+                  <c:v>108110</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>106</c:v>
+                  <c:v>110647</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>118</c:v>
+                  <c:v>115489</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>131</c:v>
+                  <c:v>117299</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>121</c:v>
+                  <c:v>117412</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>110</c:v>
+                  <c:v>118020</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>116</c:v>
+                  <c:v>118588</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>105</c:v>
+                  <c:v>118075</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>120</c:v>
+                  <c:v>117046</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>93</c:v>
+                  <c:v>115678</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>115</c:v>
+                  <c:v>114459</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>128</c:v>
+                  <c:v>112513</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>119</c:v>
+                  <c:v>110927</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>113</c:v>
+                  <c:v>110319</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>116</c:v>
+                  <c:v>108508</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>121</c:v>
+                  <c:v>107947</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>105</c:v>
+                  <c:v>107376</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>114</c:v>
+                  <c:v>105044</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>97</c:v>
+                  <c:v>103310</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>104</c:v>
+                  <c:v>101913</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>99</c:v>
+                  <c:v>100350</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>98</c:v>
+                  <c:v>100478</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>96</c:v>
+                  <c:v>100166</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>107</c:v>
+                  <c:v>97757</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>89</c:v>
+                  <c:v>97383</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>80</c:v>
+                  <c:v>96668</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>82</c:v>
+                  <c:v>92827</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>98</c:v>
+                  <c:v>93158</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>90</c:v>
+                  <c:v>90762</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>79</c:v>
+                  <c:v>90973</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>97</c:v>
+                  <c:v>90704</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>87</c:v>
+                  <c:v>91164</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>77</c:v>
+                  <c:v>90219</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>77</c:v>
+                  <c:v>90155</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>89</c:v>
+                  <c:v>90592</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>86</c:v>
+                  <c:v>90310</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>86</c:v>
+                  <c:v>91016</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>83</c:v>
+                  <c:v>90362</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1003,21 +1128,45 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="65655168"/>
-        <c:axId val="65656704"/>
+        <c:axId val="129763968"/>
+        <c:axId val="129769856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="65655168"/>
+        <c:axId val="129763968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-CA"/>
+                  <a:t>% de niveau</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-CA" baseline="0"/>
+                  <a:t> de risque du nouvel IA</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-CA"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65656704"/>
+        <c:crossAx val="129769856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1025,25 +1174,53 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65656704"/>
+        <c:axId val="129769856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-CA"/>
+                  <a:t>Nombre de Tests</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65655168"/>
+        <c:crossAx val="129763968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.70387934462737611"/>
+          <c:y val="0.43881394196354828"/>
+          <c:w val="0.28601964527161378"/>
+          <c:h val="0.25290787952205274"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1053,7 +1230,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -1072,6 +1249,76 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-CA" sz="1400" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Parties jouées par </a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-CA" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-CA" sz="1400" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>chaque nouvel IA </a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-CA" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-CA" sz="1400" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>contre l'ancien IA</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-CA" sz="1400" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>"Moyen 60%"</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-CA" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.75550899543152628"/>
+          <c:y val="3.1746031746031744E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -1083,7 +1330,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$B$45:$B$46</c:f>
+              <c:f>Feuil1!$B$36:$B$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1097,7 +1344,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Feuil1!$A$47:$A$87</c:f>
+              <c:f>(Feuil1!$A$72:$A$86,Feuil1!$E$72:$E$86,Feuil1!$I$72:$I$82)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -1229,132 +1476,132 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$B$47:$B$87</c:f>
+              <c:f>(Feuil1!$B$38:$B$52,Feuil1!$F$38:$F$52,Feuil1!$J$38:$J$48)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>511</c:v>
+                  <c:v>529602</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>528</c:v>
+                  <c:v>527235</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>526</c:v>
+                  <c:v>525918</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>526</c:v>
+                  <c:v>525557</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>511</c:v>
+                  <c:v>524413</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>546</c:v>
+                  <c:v>524399</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>515</c:v>
+                  <c:v>524640</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>518</c:v>
+                  <c:v>521203</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>535</c:v>
+                  <c:v>517863</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>523</c:v>
+                  <c:v>516168</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>506</c:v>
+                  <c:v>516495</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>518</c:v>
+                  <c:v>513547</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>489</c:v>
+                  <c:v>508733</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>504</c:v>
+                  <c:v>506823</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>510</c:v>
+                  <c:v>499415</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>508</c:v>
+                  <c:v>493060</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>499</c:v>
+                  <c:v>489898</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>473</c:v>
+                  <c:v>486796</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>465</c:v>
+                  <c:v>482692</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>474</c:v>
+                  <c:v>477344</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>459</c:v>
+                  <c:v>465123</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>443</c:v>
+                  <c:v>458654</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>433</c:v>
+                  <c:v>451545</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>445</c:v>
+                  <c:v>443543</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>490</c:v>
+                  <c:v>443194</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>455</c:v>
+                  <c:v>441038</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>411</c:v>
+                  <c:v>430776</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>441</c:v>
+                  <c:v>428928</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>415</c:v>
+                  <c:v>425934</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>419</c:v>
+                  <c:v>404613</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>385</c:v>
+                  <c:v>404639</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>372</c:v>
+                  <c:v>396444</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>388</c:v>
+                  <c:v>396762</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>373</c:v>
+                  <c:v>396213</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>386</c:v>
+                  <c:v>396539</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>380</c:v>
+                  <c:v>396348</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>399</c:v>
+                  <c:v>396383</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>389</c:v>
+                  <c:v>396554</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>407</c:v>
+                  <c:v>396250</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>404</c:v>
+                  <c:v>396272</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>397</c:v>
+                  <c:v>396397</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1366,7 +1613,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$C$45:$C$46</c:f>
+              <c:f>Feuil1!$C$36:$C$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1380,7 +1627,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Feuil1!$A$47:$A$87</c:f>
+              <c:f>(Feuil1!$A$72:$A$86,Feuil1!$E$72:$E$86,Feuil1!$I$72:$I$82)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -1512,132 +1759,132 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$C$47:$C$87</c:f>
+              <c:f>(Feuil1!$C$38:$C$52,Feuil1!$G$38:$G$52,Feuil1!$K$38:$K$48)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>417</c:v>
+                  <c:v>387002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>407</c:v>
+                  <c:v>387147</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>386</c:v>
+                  <c:v>387104</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>406</c:v>
+                  <c:v>385886</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>379</c:v>
+                  <c:v>384854</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>387</c:v>
+                  <c:v>380718</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>389</c:v>
+                  <c:v>377790</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>387</c:v>
+                  <c:v>381705</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>377</c:v>
+                  <c:v>383488</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>382</c:v>
+                  <c:v>385347</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>390</c:v>
+                  <c:v>384453</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>390</c:v>
+                  <c:v>387034</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>399</c:v>
+                  <c:v>389493</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>388</c:v>
+                  <c:v>390104</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>407</c:v>
+                  <c:v>395560</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>398</c:v>
+                  <c:v>398389</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>413</c:v>
+                  <c:v>401525</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>404</c:v>
+                  <c:v>404896</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>409</c:v>
+                  <c:v>408140</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>410</c:v>
+                  <c:v>411816</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>428</c:v>
+                  <c:v>420569</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>443</c:v>
+                  <c:v>425664</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>448</c:v>
+                  <c:v>432306</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>443</c:v>
+                  <c:v>438499</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>404</c:v>
+                  <c:v>439163</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>448</c:v>
+                  <c:v>441920</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>464</c:v>
+                  <c:v>454156</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>441</c:v>
+                  <c:v>457334</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>466</c:v>
+                  <c:v>460339</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>490</c:v>
+                  <c:v>485561</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>490</c:v>
+                  <c:v>486334</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>510</c:v>
+                  <c:v>496215</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>502</c:v>
+                  <c:v>496263</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>528</c:v>
+                  <c:v>496557</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>510</c:v>
+                  <c:v>496459</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>518</c:v>
+                  <c:v>496120</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>492</c:v>
+                  <c:v>496646</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>500</c:v>
+                  <c:v>496725</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>485</c:v>
+                  <c:v>496491</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>487</c:v>
+                  <c:v>496911</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>480</c:v>
+                  <c:v>496489</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1649,7 +1896,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$D$45:$D$46</c:f>
+              <c:f>Feuil1!$D$36:$D$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1663,7 +1910,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Feuil1!$A$47:$A$87</c:f>
+              <c:f>(Feuil1!$A$72:$A$86,Feuil1!$E$72:$E$86,Feuil1!$I$72:$I$82)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -1795,132 +2042,132 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$D$47:$D$87</c:f>
+              <c:f>(Feuil1!$D$38:$D$52,Feuil1!$H$38:$H$52,Feuil1!$L$38:$L$48)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>72</c:v>
+                  <c:v>83396</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>65</c:v>
+                  <c:v>85618</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>88</c:v>
+                  <c:v>86978</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>68</c:v>
+                  <c:v>88557</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>110</c:v>
+                  <c:v>90733</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>67</c:v>
+                  <c:v>94883</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>96</c:v>
+                  <c:v>97570</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>95</c:v>
+                  <c:v>97092</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>88</c:v>
+                  <c:v>98649</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>95</c:v>
+                  <c:v>98485</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>104</c:v>
+                  <c:v>99052</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>92</c:v>
+                  <c:v>99419</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>112</c:v>
+                  <c:v>101774</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>108</c:v>
+                  <c:v>103073</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>83</c:v>
+                  <c:v>105025</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>94</c:v>
+                  <c:v>108551</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>88</c:v>
+                  <c:v>108577</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>123</c:v>
+                  <c:v>108308</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>126</c:v>
+                  <c:v>109168</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>116</c:v>
+                  <c:v>110840</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>113</c:v>
+                  <c:v>114308</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>114</c:v>
+                  <c:v>115682</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>119</c:v>
+                  <c:v>116149</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>112</c:v>
+                  <c:v>117958</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>106</c:v>
+                  <c:v>117643</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>97</c:v>
+                  <c:v>117042</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>125</c:v>
+                  <c:v>115068</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>118</c:v>
+                  <c:v>113738</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>119</c:v>
+                  <c:v>113727</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>91</c:v>
+                  <c:v>109826</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>125</c:v>
+                  <c:v>109027</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>118</c:v>
+                  <c:v>107341</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>110</c:v>
+                  <c:v>106975</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>99</c:v>
+                  <c:v>107230</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>104</c:v>
+                  <c:v>107002</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>102</c:v>
+                  <c:v>107532</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>109</c:v>
+                  <c:v>106971</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>111</c:v>
+                  <c:v>106721</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>108</c:v>
+                  <c:v>107259</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>109</c:v>
+                  <c:v>106817</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>123</c:v>
+                  <c:v>107114</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1937,21 +2184,47 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="65213952"/>
-        <c:axId val="65251200"/>
+        <c:axId val="129814528"/>
+        <c:axId val="129816064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="65213952"/>
+        <c:axId val="129814528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-CA" sz="1000" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t>% de niveau de risque du nouvel IA</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-CA" sz="1000">
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65251200"/>
+        <c:crossAx val="129816064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1959,25 +2232,58 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65251200"/>
+        <c:axId val="129816064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-CA" sz="1000" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Nombre de Tests</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-CA" sz="1000">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65213952"/>
+        <c:crossAx val="129814528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.71907463790516246"/>
+          <c:y val="0.44954916349741997"/>
+          <c:w val="0.2704610070252626"/>
+          <c:h val="0.24602603246022819"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1987,7 +2293,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -2006,6 +2312,79 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-CA" sz="1400" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Parties jouées par </a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-CA" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-CA" sz="1400" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>chaque nouvel IA </a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-CA" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-CA" sz="1400" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>contre l'ancien IA</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-CA" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-CA" sz="1400" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>"Prudent 80%"</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-CA" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.76043363859424196"/>
+          <c:y val="3.59146898858436E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -2017,7 +2396,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$B$89:$B$90</c:f>
+              <c:f>Feuil1!$B$70:$B$71</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2031,7 +2410,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Feuil1!$A$91:$A$131</c:f>
+              <c:f>(Feuil1!$A$72:$A$86,Feuil1!$E$72:$E$86,Feuil1!$I$72:$I$82)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -2163,132 +2542,132 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$B$91:$B$131</c:f>
+              <c:f>(Feuil1!$B$72:$B$86,Feuil1!$F$72:$F$86,Feuil1!$J$72:$J$82)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>535</c:v>
+                  <c:v>552031</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>553</c:v>
+                  <c:v>550514</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>569</c:v>
+                  <c:v>550832</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>565</c:v>
+                  <c:v>550624</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>548</c:v>
+                  <c:v>551635</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>585</c:v>
+                  <c:v>555208</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>562</c:v>
+                  <c:v>558154</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>551</c:v>
+                  <c:v>555345</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>542</c:v>
+                  <c:v>552612</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>553</c:v>
+                  <c:v>551417</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>551</c:v>
+                  <c:v>551449</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>560</c:v>
+                  <c:v>549898</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>542</c:v>
+                  <c:v>547945</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>578</c:v>
+                  <c:v>547406</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>565</c:v>
+                  <c:v>541625</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>524</c:v>
+                  <c:v>538066</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>536</c:v>
+                  <c:v>536168</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>536</c:v>
+                  <c:v>532604</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>530</c:v>
+                  <c:v>530034</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>529</c:v>
+                  <c:v>525777</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>519</c:v>
+                  <c:v>517312</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>526</c:v>
+                  <c:v>512103</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>494</c:v>
+                  <c:v>506871</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>498</c:v>
+                  <c:v>499079</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>501</c:v>
+                  <c:v>498490</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>487</c:v>
+                  <c:v>495672</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>457</c:v>
+                  <c:v>484049</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>483</c:v>
+                  <c:v>480027</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>473</c:v>
+                  <c:v>477970</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>434</c:v>
+                  <c:v>452249</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>455</c:v>
+                  <c:v>452287</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>460</c:v>
+                  <c:v>442651</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>456</c:v>
+                  <c:v>442843</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>447</c:v>
+                  <c:v>444303</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>467</c:v>
+                  <c:v>442529</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>435</c:v>
+                  <c:v>441749</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>437</c:v>
+                  <c:v>442521</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>434</c:v>
+                  <c:v>442119</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>443</c:v>
+                  <c:v>441698</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>419</c:v>
+                  <c:v>443104</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>451</c:v>
+                  <c:v>442251</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2300,7 +2679,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$C$89:$C$90</c:f>
+              <c:f>Feuil1!$C$70:$C$71</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2314,7 +2693,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Feuil1!$A$91:$A$131</c:f>
+              <c:f>(Feuil1!$A$72:$A$86,Feuil1!$E$72:$E$86,Feuil1!$I$72:$I$82)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -2446,132 +2825,132 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$C$91:$C$131</c:f>
+              <c:f>(Feuil1!$C$72:$C$86,Feuil1!$G$72:$G$86,Feuil1!$K$72:$K$82)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>392</c:v>
+                  <c:v>373572</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>371</c:v>
+                  <c:v>373505</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>362</c:v>
+                  <c:v>370868</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>347</c:v>
+                  <c:v>369816</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>350</c:v>
+                  <c:v>367446</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>338</c:v>
+                  <c:v>359703</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>351</c:v>
+                  <c:v>354975</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>349</c:v>
+                  <c:v>357981</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>353</c:v>
+                  <c:v>359496</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>370</c:v>
+                  <c:v>360496</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>346</c:v>
+                  <c:v>360581</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>353</c:v>
+                  <c:v>360502</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>352</c:v>
+                  <c:v>360255</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>325</c:v>
+                  <c:v>360006</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>356</c:v>
+                  <c:v>364716</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>379</c:v>
+                  <c:v>364243</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>357</c:v>
+                  <c:v>366725</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>371</c:v>
+                  <c:v>369854</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>371</c:v>
+                  <c:v>371693</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>382</c:v>
+                  <c:v>373816</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>371</c:v>
+                  <c:v>380385</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>373</c:v>
+                  <c:v>382970</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>384</c:v>
+                  <c:v>388294</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>404</c:v>
+                  <c:v>393617</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>402</c:v>
+                  <c:v>394846</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>411</c:v>
+                  <c:v>398396</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>436</c:v>
+                  <c:v>406980</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>415</c:v>
+                  <c:v>409171</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>403</c:v>
+                  <c:v>411786</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>450</c:v>
+                  <c:v>432314</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>435</c:v>
+                  <c:v>432610</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>413</c:v>
+                  <c:v>442126</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>436</c:v>
+                  <c:v>441916</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>439</c:v>
+                  <c:v>441055</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>426</c:v>
+                  <c:v>442085</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>446</c:v>
+                  <c:v>443535</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>438</c:v>
+                  <c:v>443045</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>460</c:v>
+                  <c:v>443021</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>441</c:v>
+                  <c:v>443214</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>477</c:v>
+                  <c:v>442561</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>432</c:v>
+                  <c:v>443226</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2583,7 +2962,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$D$89:$D$90</c:f>
+              <c:f>Feuil1!$D$70:$D$71</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2597,7 +2976,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Feuil1!$A$91:$A$131</c:f>
+              <c:f>(Feuil1!$A$72:$A$86,Feuil1!$E$72:$E$86,Feuil1!$I$72:$I$82)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -2729,132 +3108,132 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$D$91:$D$131</c:f>
+              <c:f>(Feuil1!$D$72:$D$86,Feuil1!$H$72:$H$86,Feuil1!$L$72:$L$82)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>73</c:v>
+                  <c:v>74397</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>76</c:v>
+                  <c:v>75981</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>69</c:v>
+                  <c:v>78300</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>88</c:v>
+                  <c:v>79560</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>102</c:v>
+                  <c:v>80919</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>77</c:v>
+                  <c:v>85089</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>87</c:v>
+                  <c:v>86871</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>100</c:v>
+                  <c:v>86674</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>105</c:v>
+                  <c:v>87892</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>77</c:v>
+                  <c:v>88087</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>103</c:v>
+                  <c:v>87970</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>87</c:v>
+                  <c:v>89600</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>106</c:v>
+                  <c:v>91800</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>97</c:v>
+                  <c:v>92588</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>79</c:v>
+                  <c:v>93659</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>97</c:v>
+                  <c:v>97691</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>107</c:v>
+                  <c:v>97107</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>93</c:v>
+                  <c:v>97542</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>99</c:v>
+                  <c:v>98273</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>89</c:v>
+                  <c:v>100407</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>110</c:v>
+                  <c:v>102303</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>101</c:v>
+                  <c:v>104927</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>122</c:v>
+                  <c:v>104835</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>98</c:v>
+                  <c:v>107304</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>97</c:v>
+                  <c:v>106664</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>102</c:v>
+                  <c:v>105932</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>107</c:v>
+                  <c:v>108971</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>102</c:v>
+                  <c:v>110802</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>124</c:v>
+                  <c:v>110244</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>116</c:v>
+                  <c:v>115437</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>110</c:v>
+                  <c:v>115103</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>127</c:v>
+                  <c:v>115223</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>108</c:v>
+                  <c:v>115241</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>114</c:v>
+                  <c:v>114642</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>107</c:v>
+                  <c:v>115386</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>119</c:v>
+                  <c:v>114716</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>125</c:v>
+                  <c:v>114434</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>106</c:v>
+                  <c:v>114860</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>116</c:v>
+                  <c:v>115088</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>104</c:v>
+                  <c:v>114335</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>117</c:v>
+                  <c:v>114523</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2871,11 +3250,998 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="140414976"/>
-        <c:axId val="126763776"/>
+        <c:axId val="132744320"/>
+        <c:axId val="132745856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="140414976"/>
+        <c:axId val="132744320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-CA" sz="1000" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t>% de niveau de risque du nouvel IA</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-CA" sz="1000">
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="132745856"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="132745856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-CA" sz="1050" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t>Nombre de Tests</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-CA" sz="1050">
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="132744320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.71898699461848592"/>
+          <c:y val="0.45903745803177604"/>
+          <c:w val="0.27080892511530813"/>
+          <c:h val="0.243540834931702"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-CA"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-CA" sz="1400"/>
+              <a:t>Nombre de parties gagnées de tous</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-CA" sz="1400" baseline="0"/>
+              <a:t> les nouveaux AI contre les 3 anciens AI (combinés)</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-CA" sz="1400"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>vs Courageux</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Feuil1!$A$72:$A$86,Feuil1!$E$72:$E$86,Feuil1!$I$72:$I$82)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Feuil1!$B$5:$B$19,Feuil1!$F$5:$F$19,Feuil1!$J$5:$J$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>481801</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>478609</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>474632</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>471335</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>467085</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>459505</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>455172</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>450583</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>446897</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>443087</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>443925</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>441300</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>435794</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>432624</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>424531</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>419966</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>417234</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>413618</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>411225</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>408275</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>401467</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>397420</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>392921</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>387246</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>387282</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>385432</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>379124</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>378025</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>376481</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>364144</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>364263</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>359824</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>359517</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>358382</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>358362</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>358845</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>358524</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>358113</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>357944</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>358750</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>359407</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>vs Moyen</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Feuil1!$A$72:$A$86,Feuil1!$E$72:$E$86,Feuil1!$I$72:$I$82)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Feuil1!$B$38:$B$52,Feuil1!$F$38:$F$52,Feuil1!$J$38:$J$48)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>529602</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>527235</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>525918</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>525557</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>524413</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>524399</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>524640</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>521203</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>517863</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>516168</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>516495</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>513547</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>508733</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>506823</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>499415</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>493060</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>489898</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>486796</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>482692</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>477344</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>465123</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>458654</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>451545</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>443543</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>443194</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>441038</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>430776</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>428928</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>425934</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>404613</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>404639</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>396444</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>396762</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>396213</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>396539</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>396348</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>396383</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>396554</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>396250</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>396272</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>396397</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>vs Prudent</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>(Feuil1!$A$72:$A$86,Feuil1!$E$72:$E$86,Feuil1!$I$72:$I$82)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Feuil1!$B$72:$B$86,Feuil1!$F$72:$F$86,Feuil1!$J$72:$J$82)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>552031</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>550514</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>550832</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>550624</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>551635</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>555208</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>558154</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>555345</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>552612</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>551417</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>551449</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>549898</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>547945</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>547406</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>541625</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>538066</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>536168</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>532604</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>530034</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>525777</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>517312</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>512103</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>506871</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>499079</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>498490</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>495672</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>484049</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>480027</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>477970</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>452249</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>452287</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>442651</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>442843</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>444303</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>442529</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>441749</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>442521</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>442119</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>441698</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>443104</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>442251</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="133800320"/>
+        <c:axId val="133801856"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="133800320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2885,7 +4251,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126763776"/>
+        <c:crossAx val="133801856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2893,7 +4259,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="126763776"/>
+        <c:axId val="133801856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2904,7 +4270,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140414976"/>
+        <c:crossAx val="133800320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2930,16 +4296,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>423862</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2960,16 +4326,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>423861</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>214311</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>542924</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>685799</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2990,16 +4356,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>409574</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>533399</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>847725</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3020,6 +4386,93 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>66676</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6591300" cy="436786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="ZoneTexte 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="561975" y="19650074"/>
+          <a:ext cx="6591300" cy="436786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100"/>
+            <a:t>Analyse:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-CA" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3310,1832 +4763,1749 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D131"/>
+  <dimension ref="A1:M86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B43"/>
+    <sheetView tabSelected="1" topLeftCell="A99" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D107" sqref="D107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" customWidth="1"/>
+    <col min="6" max="7" width="9" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" customWidth="1"/>
+    <col min="9" max="9" width="6.5703125" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" customWidth="1"/>
+    <col min="11" max="11" width="8.42578125" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="7"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>40</v>
+      </c>
+      <c r="B5" s="2">
+        <v>481801</v>
+      </c>
+      <c r="C5" s="2">
+        <v>415385</v>
+      </c>
+      <c r="D5" s="2">
+        <v>102814</v>
+      </c>
+      <c r="E5" s="2">
+        <v>55</v>
+      </c>
+      <c r="F5" s="2">
+        <v>419966</v>
+      </c>
+      <c r="G5" s="2">
+        <v>469107</v>
+      </c>
+      <c r="H5" s="2">
+        <v>110927</v>
+      </c>
+      <c r="I5" s="2">
+        <v>70</v>
+      </c>
+      <c r="J5" s="2">
+        <v>364263</v>
+      </c>
+      <c r="K5" s="2">
+        <v>542579</v>
+      </c>
+      <c r="L5" s="2">
+        <v>93158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>41</v>
+      </c>
+      <c r="B6" s="2">
+        <v>478609</v>
+      </c>
+      <c r="C6" s="2">
+        <v>417640</v>
+      </c>
+      <c r="D6" s="2">
+        <v>103751</v>
+      </c>
+      <c r="E6" s="2">
+        <v>56</v>
+      </c>
+      <c r="F6" s="2">
+        <v>417234</v>
+      </c>
+      <c r="G6" s="2">
+        <v>472447</v>
+      </c>
+      <c r="H6" s="2">
+        <v>110319</v>
+      </c>
+      <c r="I6" s="2">
+        <v>71</v>
+      </c>
+      <c r="J6" s="2">
+        <v>359824</v>
+      </c>
+      <c r="K6" s="2">
+        <v>549414</v>
+      </c>
+      <c r="L6" s="2">
+        <v>90762</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>42</v>
+      </c>
+      <c r="B7" s="2">
+        <v>474632</v>
+      </c>
+      <c r="C7" s="2">
+        <v>418700</v>
+      </c>
+      <c r="D7" s="2">
+        <v>106668</v>
+      </c>
+      <c r="E7" s="2">
+        <v>57</v>
+      </c>
+      <c r="F7" s="2">
+        <v>413618</v>
+      </c>
+      <c r="G7" s="2">
+        <v>477874</v>
+      </c>
+      <c r="H7" s="2">
+        <v>108508</v>
+      </c>
+      <c r="I7" s="2">
+        <v>72</v>
+      </c>
+      <c r="J7" s="2">
+        <v>359517</v>
+      </c>
+      <c r="K7" s="2">
+        <v>549510</v>
+      </c>
+      <c r="L7" s="2">
+        <v>90973</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>43</v>
+      </c>
+      <c r="B8" s="2">
+        <v>471335</v>
+      </c>
+      <c r="C8" s="2">
+        <v>420555</v>
+      </c>
+      <c r="D8" s="2">
+        <v>108110</v>
+      </c>
+      <c r="E8" s="2">
+        <v>58</v>
+      </c>
+      <c r="F8" s="2">
+        <v>411225</v>
+      </c>
+      <c r="G8" s="2">
+        <v>480828</v>
+      </c>
+      <c r="H8" s="2">
+        <v>107947</v>
+      </c>
+      <c r="I8" s="2">
+        <v>73</v>
+      </c>
+      <c r="J8" s="2">
+        <v>358382</v>
+      </c>
+      <c r="K8" s="2">
+        <v>550914</v>
+      </c>
+      <c r="L8" s="2">
+        <v>90704</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>44</v>
+      </c>
+      <c r="B9" s="2">
+        <v>467085</v>
+      </c>
+      <c r="C9" s="2">
+        <v>422268</v>
+      </c>
+      <c r="D9" s="2">
+        <v>110647</v>
+      </c>
+      <c r="E9" s="2">
+        <v>59</v>
+      </c>
+      <c r="F9" s="2">
+        <v>408275</v>
+      </c>
+      <c r="G9" s="2">
+        <v>484349</v>
+      </c>
+      <c r="H9" s="2">
+        <v>107376</v>
+      </c>
+      <c r="I9" s="2">
+        <v>74</v>
+      </c>
+      <c r="J9" s="2">
+        <v>358362</v>
+      </c>
+      <c r="K9" s="2">
+        <v>550474</v>
+      </c>
+      <c r="L9" s="2">
+        <v>91164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>45</v>
+      </c>
+      <c r="B10" s="2">
+        <v>459505</v>
+      </c>
+      <c r="C10" s="2">
+        <v>425006</v>
+      </c>
+      <c r="D10" s="2">
+        <v>115489</v>
+      </c>
+      <c r="E10" s="2">
+        <v>60</v>
+      </c>
+      <c r="F10" s="2">
+        <v>401467</v>
+      </c>
+      <c r="G10" s="2">
+        <v>493489</v>
+      </c>
+      <c r="H10" s="2">
+        <v>105044</v>
+      </c>
+      <c r="I10" s="2">
+        <v>75</v>
+      </c>
+      <c r="J10" s="2">
+        <v>358845</v>
+      </c>
+      <c r="K10" s="2">
+        <v>550936</v>
+      </c>
+      <c r="L10" s="2">
+        <v>90219</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>46</v>
+      </c>
+      <c r="B11" s="2">
+        <v>455172</v>
+      </c>
+      <c r="C11" s="2">
+        <v>427529</v>
+      </c>
+      <c r="D11" s="2">
+        <v>117299</v>
+      </c>
+      <c r="E11" s="2">
+        <v>61</v>
+      </c>
+      <c r="F11" s="2">
+        <v>397420</v>
+      </c>
+      <c r="G11" s="2">
+        <v>499270</v>
+      </c>
+      <c r="H11" s="2">
+        <v>103310</v>
+      </c>
+      <c r="I11" s="2">
+        <v>76</v>
+      </c>
+      <c r="J11" s="2">
+        <v>358524</v>
+      </c>
+      <c r="K11" s="2">
+        <v>551321</v>
+      </c>
+      <c r="L11" s="2">
+        <v>90155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>47</v>
+      </c>
+      <c r="B12" s="2">
+        <v>450583</v>
+      </c>
+      <c r="C12" s="2">
+        <v>432005</v>
+      </c>
+      <c r="D12" s="2">
+        <v>117412</v>
+      </c>
+      <c r="E12" s="2">
+        <v>62</v>
+      </c>
+      <c r="F12" s="2">
+        <v>392921</v>
+      </c>
+      <c r="G12" s="2">
+        <v>505166</v>
+      </c>
+      <c r="H12" s="2">
+        <v>101913</v>
+      </c>
+      <c r="I12" s="2">
+        <v>77</v>
+      </c>
+      <c r="J12" s="2">
+        <v>358113</v>
+      </c>
+      <c r="K12" s="2">
+        <v>551295</v>
+      </c>
+      <c r="L12" s="2">
+        <v>90592</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>48</v>
+      </c>
+      <c r="B13" s="2">
+        <v>446897</v>
+      </c>
+      <c r="C13" s="2">
+        <v>435083</v>
+      </c>
+      <c r="D13" s="2">
+        <v>118020</v>
+      </c>
+      <c r="E13" s="2">
+        <v>63</v>
+      </c>
+      <c r="F13" s="2">
+        <v>387246</v>
+      </c>
+      <c r="G13" s="2">
+        <v>512404</v>
+      </c>
+      <c r="H13" s="2">
+        <v>100350</v>
+      </c>
+      <c r="I13" s="2">
+        <v>78</v>
+      </c>
+      <c r="J13" s="2">
+        <v>357944</v>
+      </c>
+      <c r="K13" s="2">
+        <v>551746</v>
+      </c>
+      <c r="L13" s="2">
+        <v>90310</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>49</v>
+      </c>
+      <c r="B14" s="2">
+        <v>443087</v>
+      </c>
+      <c r="C14" s="2">
+        <v>438325</v>
+      </c>
+      <c r="D14" s="2">
+        <v>118588</v>
+      </c>
+      <c r="E14" s="2">
+        <v>64</v>
+      </c>
+      <c r="F14" s="2">
+        <v>387282</v>
+      </c>
+      <c r="G14" s="2">
+        <v>512240</v>
+      </c>
+      <c r="H14" s="2">
+        <v>100478</v>
+      </c>
+      <c r="I14" s="2">
+        <v>79</v>
+      </c>
+      <c r="J14" s="2">
+        <v>358750</v>
+      </c>
+      <c r="K14" s="2">
+        <v>550234</v>
+      </c>
+      <c r="L14" s="2">
+        <v>91016</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>50</v>
+      </c>
+      <c r="B15" s="2">
+        <v>443925</v>
+      </c>
+      <c r="C15" s="2">
+        <v>438000</v>
+      </c>
+      <c r="D15" s="2">
+        <v>118075</v>
+      </c>
+      <c r="E15" s="2">
+        <v>65</v>
+      </c>
+      <c r="F15" s="2">
+        <v>385432</v>
+      </c>
+      <c r="G15" s="2">
+        <v>514402</v>
+      </c>
+      <c r="H15" s="2">
+        <v>100166</v>
+      </c>
+      <c r="I15" s="2">
+        <v>80</v>
+      </c>
+      <c r="J15" s="2">
+        <v>359407</v>
+      </c>
+      <c r="K15" s="2">
+        <v>550231</v>
+      </c>
+      <c r="L15" s="2">
+        <v>90362</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>51</v>
+      </c>
+      <c r="B16" s="2">
+        <v>441300</v>
+      </c>
+      <c r="C16" s="2">
+        <v>441654</v>
+      </c>
+      <c r="D16" s="2">
+        <v>117046</v>
+      </c>
+      <c r="E16" s="2">
+        <v>66</v>
+      </c>
+      <c r="F16" s="2">
+        <v>379124</v>
+      </c>
+      <c r="G16" s="2">
+        <v>523119</v>
+      </c>
+      <c r="H16" s="2">
+        <v>97757</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>52</v>
+      </c>
+      <c r="B17" s="2">
+        <v>435794</v>
+      </c>
+      <c r="C17" s="2">
+        <v>448528</v>
+      </c>
+      <c r="D17" s="2">
+        <v>115678</v>
+      </c>
+      <c r="E17" s="2">
+        <v>67</v>
+      </c>
+      <c r="F17" s="2">
+        <v>378025</v>
+      </c>
+      <c r="G17" s="2">
+        <v>524592</v>
+      </c>
+      <c r="H17" s="2">
+        <v>97383</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>53</v>
+      </c>
+      <c r="B18" s="2">
+        <v>432624</v>
+      </c>
+      <c r="C18" s="2">
+        <v>452917</v>
+      </c>
+      <c r="D18" s="2">
+        <v>114459</v>
+      </c>
+      <c r="E18" s="2">
+        <v>68</v>
+      </c>
+      <c r="F18" s="2">
+        <v>376481</v>
+      </c>
+      <c r="G18" s="2">
+        <v>526851</v>
+      </c>
+      <c r="H18" s="2">
+        <v>96668</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>54</v>
+      </c>
+      <c r="B19" s="2">
+        <v>424531</v>
+      </c>
+      <c r="C19" s="2">
+        <v>462956</v>
+      </c>
+      <c r="D19" s="2">
+        <v>112513</v>
+      </c>
+      <c r="E19" s="2">
+        <v>69</v>
+      </c>
+      <c r="F19" s="2">
+        <v>364144</v>
+      </c>
+      <c r="G19" s="2">
+        <v>543029</v>
+      </c>
+      <c r="H19" s="2">
+        <v>92827</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+      <c r="B37" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I37" s="2"/>
+      <c r="J37" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>40</v>
+      </c>
+      <c r="B38" s="2">
+        <v>529602</v>
+      </c>
+      <c r="C38" s="2">
+        <v>387002</v>
+      </c>
+      <c r="D38" s="2">
+        <v>83396</v>
+      </c>
+      <c r="E38" s="2">
+        <v>55</v>
+      </c>
+      <c r="F38" s="2">
+        <v>493060</v>
+      </c>
+      <c r="G38" s="2">
+        <v>398389</v>
+      </c>
+      <c r="H38" s="2">
+        <v>108551</v>
+      </c>
+      <c r="I38" s="2">
+        <v>70</v>
+      </c>
+      <c r="J38" s="2">
+        <v>404639</v>
+      </c>
+      <c r="K38" s="2">
+        <v>486334</v>
+      </c>
+      <c r="L38" s="2">
+        <v>109027</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>41</v>
+      </c>
+      <c r="B39" s="2">
+        <v>527235</v>
+      </c>
+      <c r="C39" s="2">
+        <v>387147</v>
+      </c>
+      <c r="D39" s="2">
+        <v>85618</v>
+      </c>
+      <c r="E39" s="2">
+        <v>56</v>
+      </c>
+      <c r="F39" s="2">
+        <v>489898</v>
+      </c>
+      <c r="G39" s="2">
+        <v>401525</v>
+      </c>
+      <c r="H39" s="2">
+        <v>108577</v>
+      </c>
+      <c r="I39" s="2">
+        <v>71</v>
+      </c>
+      <c r="J39" s="2">
+        <v>396444</v>
+      </c>
+      <c r="K39" s="2">
+        <v>496215</v>
+      </c>
+      <c r="L39" s="2">
+        <v>107341</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>42</v>
+      </c>
+      <c r="B40" s="2">
+        <v>525918</v>
+      </c>
+      <c r="C40" s="2">
+        <v>387104</v>
+      </c>
+      <c r="D40" s="2">
+        <v>86978</v>
+      </c>
+      <c r="E40" s="2">
+        <v>57</v>
+      </c>
+      <c r="F40" s="2">
+        <v>486796</v>
+      </c>
+      <c r="G40" s="2">
+        <v>404896</v>
+      </c>
+      <c r="H40" s="2">
+        <v>108308</v>
+      </c>
+      <c r="I40" s="2">
+        <v>72</v>
+      </c>
+      <c r="J40" s="2">
+        <v>396762</v>
+      </c>
+      <c r="K40" s="2">
+        <v>496263</v>
+      </c>
+      <c r="L40" s="2">
+        <v>106975</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>43</v>
+      </c>
+      <c r="B41" s="2">
+        <v>525557</v>
+      </c>
+      <c r="C41" s="2">
+        <v>385886</v>
+      </c>
+      <c r="D41" s="2">
+        <v>88557</v>
+      </c>
+      <c r="E41" s="2">
+        <v>58</v>
+      </c>
+      <c r="F41" s="2">
+        <v>482692</v>
+      </c>
+      <c r="G41" s="2">
+        <v>408140</v>
+      </c>
+      <c r="H41" s="2">
+        <v>109168</v>
+      </c>
+      <c r="I41" s="2">
+        <v>73</v>
+      </c>
+      <c r="J41" s="2">
+        <v>396213</v>
+      </c>
+      <c r="K41" s="2">
+        <v>496557</v>
+      </c>
+      <c r="L41" s="2">
+        <v>107230</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>44</v>
+      </c>
+      <c r="B42" s="2">
+        <v>524413</v>
+      </c>
+      <c r="C42" s="2">
+        <v>384854</v>
+      </c>
+      <c r="D42" s="2">
+        <v>90733</v>
+      </c>
+      <c r="E42" s="2">
+        <v>59</v>
+      </c>
+      <c r="F42" s="2">
+        <v>477344</v>
+      </c>
+      <c r="G42" s="2">
+        <v>411816</v>
+      </c>
+      <c r="H42" s="2">
+        <v>110840</v>
+      </c>
+      <c r="I42" s="2">
+        <v>74</v>
+      </c>
+      <c r="J42" s="2">
+        <v>396539</v>
+      </c>
+      <c r="K42" s="2">
+        <v>496459</v>
+      </c>
+      <c r="L42" s="2">
+        <v>107002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>45</v>
+      </c>
+      <c r="B43" s="2">
+        <v>524399</v>
+      </c>
+      <c r="C43" s="2">
+        <v>380718</v>
+      </c>
+      <c r="D43" s="2">
+        <v>94883</v>
+      </c>
+      <c r="E43" s="2">
+        <v>60</v>
+      </c>
+      <c r="F43" s="2">
+        <v>465123</v>
+      </c>
+      <c r="G43" s="2">
+        <v>420569</v>
+      </c>
+      <c r="H43" s="2">
+        <v>114308</v>
+      </c>
+      <c r="I43" s="2">
+        <v>75</v>
+      </c>
+      <c r="J43" s="2">
+        <v>396348</v>
+      </c>
+      <c r="K43" s="2">
+        <v>496120</v>
+      </c>
+      <c r="L43" s="2">
+        <v>107532</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>46</v>
+      </c>
+      <c r="B44" s="2">
+        <v>524640</v>
+      </c>
+      <c r="C44" s="2">
+        <v>377790</v>
+      </c>
+      <c r="D44" s="2">
+        <v>97570</v>
+      </c>
+      <c r="E44" s="2">
+        <v>61</v>
+      </c>
+      <c r="F44" s="2">
+        <v>458654</v>
+      </c>
+      <c r="G44" s="2">
+        <v>425664</v>
+      </c>
+      <c r="H44" s="2">
+        <v>115682</v>
+      </c>
+      <c r="I44" s="2">
+        <v>76</v>
+      </c>
+      <c r="J44" s="2">
+        <v>396383</v>
+      </c>
+      <c r="K44" s="2">
+        <v>496646</v>
+      </c>
+      <c r="L44" s="2">
+        <v>106971</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>47</v>
+      </c>
+      <c r="B45" s="2">
+        <v>521203</v>
+      </c>
+      <c r="C45" s="2">
+        <v>381705</v>
+      </c>
+      <c r="D45" s="2">
+        <v>97092</v>
+      </c>
+      <c r="E45" s="2">
+        <v>62</v>
+      </c>
+      <c r="F45" s="2">
+        <v>451545</v>
+      </c>
+      <c r="G45" s="2">
+        <v>432306</v>
+      </c>
+      <c r="H45" s="2">
+        <v>116149</v>
+      </c>
+      <c r="I45" s="2">
+        <v>77</v>
+      </c>
+      <c r="J45" s="2">
+        <v>396554</v>
+      </c>
+      <c r="K45" s="2">
+        <v>496725</v>
+      </c>
+      <c r="L45" s="2">
+        <v>106721</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>48</v>
+      </c>
+      <c r="B46" s="2">
+        <v>517863</v>
+      </c>
+      <c r="C46" s="2">
+        <v>383488</v>
+      </c>
+      <c r="D46" s="2">
+        <v>98649</v>
+      </c>
+      <c r="E46" s="2">
+        <v>63</v>
+      </c>
+      <c r="F46" s="2">
+        <v>443543</v>
+      </c>
+      <c r="G46" s="2">
+        <v>438499</v>
+      </c>
+      <c r="H46" s="2">
+        <v>117958</v>
+      </c>
+      <c r="I46" s="2">
+        <v>78</v>
+      </c>
+      <c r="J46" s="2">
+        <v>396250</v>
+      </c>
+      <c r="K46" s="2">
+        <v>496491</v>
+      </c>
+      <c r="L46" s="2">
+        <v>107259</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>49</v>
+      </c>
+      <c r="B47" s="2">
+        <v>516168</v>
+      </c>
+      <c r="C47" s="2">
+        <v>385347</v>
+      </c>
+      <c r="D47" s="2">
+        <v>98485</v>
+      </c>
+      <c r="E47" s="2">
+        <v>64</v>
+      </c>
+      <c r="F47" s="2">
+        <v>443194</v>
+      </c>
+      <c r="G47" s="2">
+        <v>439163</v>
+      </c>
+      <c r="H47" s="2">
+        <v>117643</v>
+      </c>
+      <c r="I47" s="2">
+        <v>79</v>
+      </c>
+      <c r="J47" s="2">
+        <v>396272</v>
+      </c>
+      <c r="K47" s="2">
+        <v>496911</v>
+      </c>
+      <c r="L47" s="2">
+        <v>106817</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>50</v>
+      </c>
+      <c r="B48" s="2">
+        <v>516495</v>
+      </c>
+      <c r="C48" s="2">
+        <v>384453</v>
+      </c>
+      <c r="D48" s="2">
+        <v>99052</v>
+      </c>
+      <c r="E48" s="2">
+        <v>65</v>
+      </c>
+      <c r="F48" s="2">
+        <v>441038</v>
+      </c>
+      <c r="G48" s="2">
+        <v>441920</v>
+      </c>
+      <c r="H48" s="2">
+        <v>117042</v>
+      </c>
+      <c r="I48" s="2">
+        <v>80</v>
+      </c>
+      <c r="J48" s="2">
+        <v>396397</v>
+      </c>
+      <c r="K48" s="2">
+        <v>496489</v>
+      </c>
+      <c r="L48" s="2">
+        <v>107114</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>51</v>
+      </c>
+      <c r="B49" s="2">
+        <v>513547</v>
+      </c>
+      <c r="C49" s="2">
+        <v>387034</v>
+      </c>
+      <c r="D49" s="2">
+        <v>99419</v>
+      </c>
+      <c r="E49" s="2">
+        <v>66</v>
+      </c>
+      <c r="F49" s="2">
+        <v>430776</v>
+      </c>
+      <c r="G49" s="2">
+        <v>454156</v>
+      </c>
+      <c r="H49" s="2">
+        <v>115068</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>52</v>
+      </c>
+      <c r="B50" s="2">
+        <v>508733</v>
+      </c>
+      <c r="C50" s="2">
+        <v>389493</v>
+      </c>
+      <c r="D50" s="2">
+        <v>101774</v>
+      </c>
+      <c r="E50" s="2">
+        <v>67</v>
+      </c>
+      <c r="F50" s="2">
+        <v>428928</v>
+      </c>
+      <c r="G50" s="2">
+        <v>457334</v>
+      </c>
+      <c r="H50" s="2">
+        <v>113738</v>
+      </c>
+      <c r="J50" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>53</v>
+      </c>
+      <c r="B51" s="2">
+        <v>506823</v>
+      </c>
+      <c r="C51" s="2">
+        <v>390104</v>
+      </c>
+      <c r="D51" s="2">
+        <v>103073</v>
+      </c>
+      <c r="E51" s="2">
+        <v>68</v>
+      </c>
+      <c r="F51" s="2">
+        <v>425934</v>
+      </c>
+      <c r="G51" s="2">
+        <v>460339</v>
+      </c>
+      <c r="H51" s="2">
+        <v>113727</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>54</v>
+      </c>
+      <c r="B52" s="2">
+        <v>499415</v>
+      </c>
+      <c r="C52" s="2">
+        <v>395560</v>
+      </c>
+      <c r="D52" s="2">
+        <v>105025</v>
+      </c>
+      <c r="E52" s="2">
+        <v>69</v>
+      </c>
+      <c r="F52" s="2">
+        <v>404613</v>
+      </c>
+      <c r="G52" s="2">
+        <v>485561</v>
+      </c>
+      <c r="H52" s="2">
+        <v>109826</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A71" s="2"/>
+      <c r="B71" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D71" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>3</v>
+      <c r="E71" s="2"/>
+      <c r="F71" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I71" s="2"/>
+      <c r="J71" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K71" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L71" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
         <v>40</v>
       </c>
-      <c r="B3" s="3">
-        <v>465</v>
-      </c>
-      <c r="C3" s="3">
-        <v>433</v>
-      </c>
-      <c r="D3" s="3">
-        <v>102</v>
-      </c>
+      <c r="B72" s="2">
+        <v>552031</v>
+      </c>
+      <c r="C72" s="2">
+        <v>373572</v>
+      </c>
+      <c r="D72" s="2">
+        <v>74397</v>
+      </c>
+      <c r="E72" s="2">
+        <v>55</v>
+      </c>
+      <c r="F72" s="2">
+        <v>538066</v>
+      </c>
+      <c r="G72" s="2">
+        <v>364243</v>
+      </c>
+      <c r="H72" s="2">
+        <v>97691</v>
+      </c>
+      <c r="I72" s="2">
+        <v>70</v>
+      </c>
+      <c r="J72" s="2">
+        <v>452287</v>
+      </c>
+      <c r="K72" s="2">
+        <v>432610</v>
+      </c>
+      <c r="L72" s="2">
+        <v>115103</v>
+      </c>
+      <c r="M72" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
         <v>41</v>
       </c>
-      <c r="B4" s="3">
-        <v>466</v>
-      </c>
-      <c r="C4" s="3">
-        <v>440</v>
-      </c>
-      <c r="D4" s="3">
-        <v>94</v>
+      <c r="B73" s="2">
+        <v>550514</v>
+      </c>
+      <c r="C73" s="2">
+        <v>373505</v>
+      </c>
+      <c r="D73" s="2">
+        <v>75981</v>
+      </c>
+      <c r="E73" s="2">
+        <v>56</v>
+      </c>
+      <c r="F73" s="2">
+        <v>536168</v>
+      </c>
+      <c r="G73" s="2">
+        <v>366725</v>
+      </c>
+      <c r="H73" s="2">
+        <v>97107</v>
+      </c>
+      <c r="I73" s="2">
+        <v>71</v>
+      </c>
+      <c r="J73" s="2">
+        <v>442651</v>
+      </c>
+      <c r="K73" s="2">
+        <v>442126</v>
+      </c>
+      <c r="L73" s="2">
+        <v>115223</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
         <v>42</v>
       </c>
-      <c r="B5" s="3">
-        <v>464</v>
-      </c>
-      <c r="C5" s="3">
-        <v>433</v>
-      </c>
-      <c r="D5" s="3">
-        <v>103</v>
+      <c r="B74" s="2">
+        <v>550832</v>
+      </c>
+      <c r="C74" s="2">
+        <v>370868</v>
+      </c>
+      <c r="D74" s="2">
+        <v>78300</v>
+      </c>
+      <c r="E74" s="2">
+        <v>57</v>
+      </c>
+      <c r="F74" s="2">
+        <v>532604</v>
+      </c>
+      <c r="G74" s="2">
+        <v>369854</v>
+      </c>
+      <c r="H74" s="2">
+        <v>97542</v>
+      </c>
+      <c r="I74" s="2">
+        <v>72</v>
+      </c>
+      <c r="J74" s="2">
+        <v>442843</v>
+      </c>
+      <c r="K74" s="2">
+        <v>441916</v>
+      </c>
+      <c r="L74" s="2">
+        <v>115241</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
         <v>43</v>
       </c>
-      <c r="B6" s="3">
-        <v>420</v>
-      </c>
-      <c r="C6" s="3">
-        <v>469</v>
-      </c>
-      <c r="D6" s="3">
-        <v>111</v>
+      <c r="B75" s="2">
+        <v>550624</v>
+      </c>
+      <c r="C75" s="2">
+        <v>369816</v>
+      </c>
+      <c r="D75" s="2">
+        <v>79560</v>
+      </c>
+      <c r="E75" s="2">
+        <v>58</v>
+      </c>
+      <c r="F75" s="2">
+        <v>530034</v>
+      </c>
+      <c r="G75" s="2">
+        <v>371693</v>
+      </c>
+      <c r="H75" s="2">
+        <v>98273</v>
+      </c>
+      <c r="I75" s="2">
+        <v>73</v>
+      </c>
+      <c r="J75" s="2">
+        <v>444303</v>
+      </c>
+      <c r="K75" s="2">
+        <v>441055</v>
+      </c>
+      <c r="L75" s="2">
+        <v>114642</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
         <v>44</v>
       </c>
-      <c r="B7" s="3">
-        <v>463</v>
-      </c>
-      <c r="C7" s="3">
-        <v>431</v>
-      </c>
-      <c r="D7" s="3">
-        <v>106</v>
+      <c r="B76" s="2">
+        <v>551635</v>
+      </c>
+      <c r="C76" s="2">
+        <v>367446</v>
+      </c>
+      <c r="D76" s="2">
+        <v>80919</v>
+      </c>
+      <c r="E76" s="2">
+        <v>59</v>
+      </c>
+      <c r="F76" s="2">
+        <v>525777</v>
+      </c>
+      <c r="G76" s="2">
+        <v>373816</v>
+      </c>
+      <c r="H76" s="2">
+        <v>100407</v>
+      </c>
+      <c r="I76" s="2">
+        <v>74</v>
+      </c>
+      <c r="J76" s="2">
+        <v>442529</v>
+      </c>
+      <c r="K76" s="2">
+        <v>442085</v>
+      </c>
+      <c r="L76" s="2">
+        <v>115386</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
         <v>45</v>
       </c>
-      <c r="B8" s="3">
-        <v>423</v>
-      </c>
-      <c r="C8" s="3">
-        <v>459</v>
-      </c>
-      <c r="D8" s="3">
-        <v>118</v>
+      <c r="B77" s="2">
+        <v>555208</v>
+      </c>
+      <c r="C77" s="2">
+        <v>359703</v>
+      </c>
+      <c r="D77" s="2">
+        <v>85089</v>
+      </c>
+      <c r="E77" s="2">
+        <v>60</v>
+      </c>
+      <c r="F77" s="2">
+        <v>517312</v>
+      </c>
+      <c r="G77" s="2">
+        <v>380385</v>
+      </c>
+      <c r="H77" s="2">
+        <v>102303</v>
+      </c>
+      <c r="I77" s="2">
+        <v>75</v>
+      </c>
+      <c r="J77" s="2">
+        <v>441749</v>
+      </c>
+      <c r="K77" s="2">
+        <v>443535</v>
+      </c>
+      <c r="L77" s="2">
+        <v>114716</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
         <v>46</v>
       </c>
-      <c r="B9" s="3">
-        <v>462</v>
-      </c>
-      <c r="C9" s="3">
-        <v>407</v>
-      </c>
-      <c r="D9" s="3">
-        <v>131</v>
+      <c r="B78" s="2">
+        <v>558154</v>
+      </c>
+      <c r="C78" s="2">
+        <v>354975</v>
+      </c>
+      <c r="D78" s="2">
+        <v>86871</v>
+      </c>
+      <c r="E78" s="2">
+        <v>61</v>
+      </c>
+      <c r="F78" s="2">
+        <v>512103</v>
+      </c>
+      <c r="G78" s="2">
+        <v>382970</v>
+      </c>
+      <c r="H78" s="2">
+        <v>104927</v>
+      </c>
+      <c r="I78" s="2">
+        <v>76</v>
+      </c>
+      <c r="J78" s="2">
+        <v>442521</v>
+      </c>
+      <c r="K78" s="2">
+        <v>443045</v>
+      </c>
+      <c r="L78" s="2">
+        <v>114434</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
         <v>47</v>
       </c>
-      <c r="B10" s="3">
-        <v>440</v>
-      </c>
-      <c r="C10" s="3">
-        <v>439</v>
-      </c>
-      <c r="D10" s="3">
-        <v>121</v>
+      <c r="B79" s="2">
+        <v>555345</v>
+      </c>
+      <c r="C79" s="2">
+        <v>357981</v>
+      </c>
+      <c r="D79" s="2">
+        <v>86674</v>
+      </c>
+      <c r="E79" s="2">
+        <v>62</v>
+      </c>
+      <c r="F79" s="2">
+        <v>506871</v>
+      </c>
+      <c r="G79" s="2">
+        <v>388294</v>
+      </c>
+      <c r="H79" s="2">
+        <v>104835</v>
+      </c>
+      <c r="I79" s="2">
+        <v>77</v>
+      </c>
+      <c r="J79" s="2">
+        <v>442119</v>
+      </c>
+      <c r="K79" s="2">
+        <v>443021</v>
+      </c>
+      <c r="L79" s="2">
+        <v>114860</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
         <v>48</v>
       </c>
-      <c r="B11" s="3">
-        <v>422</v>
-      </c>
-      <c r="C11" s="3">
-        <v>468</v>
-      </c>
-      <c r="D11" s="3">
-        <v>110</v>
+      <c r="B80" s="2">
+        <v>552612</v>
+      </c>
+      <c r="C80" s="2">
+        <v>359496</v>
+      </c>
+      <c r="D80" s="2">
+        <v>87892</v>
+      </c>
+      <c r="E80" s="2">
+        <v>63</v>
+      </c>
+      <c r="F80" s="2">
+        <v>499079</v>
+      </c>
+      <c r="G80" s="2">
+        <v>393617</v>
+      </c>
+      <c r="H80" s="2">
+        <v>107304</v>
+      </c>
+      <c r="I80" s="2">
+        <v>78</v>
+      </c>
+      <c r="J80" s="2">
+        <v>441698</v>
+      </c>
+      <c r="K80" s="2">
+        <v>443214</v>
+      </c>
+      <c r="L80" s="2">
+        <v>115088</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
         <v>49</v>
       </c>
-      <c r="B12" s="3">
-        <v>446</v>
-      </c>
-      <c r="C12" s="3">
-        <v>438</v>
-      </c>
-      <c r="D12" s="3">
-        <v>116</v>
+      <c r="B81" s="2">
+        <v>551417</v>
+      </c>
+      <c r="C81" s="2">
+        <v>360496</v>
+      </c>
+      <c r="D81" s="2">
+        <v>88087</v>
+      </c>
+      <c r="E81" s="2">
+        <v>64</v>
+      </c>
+      <c r="F81" s="2">
+        <v>498490</v>
+      </c>
+      <c r="G81" s="2">
+        <v>394846</v>
+      </c>
+      <c r="H81" s="2">
+        <v>106664</v>
+      </c>
+      <c r="I81" s="2">
+        <v>79</v>
+      </c>
+      <c r="J81" s="2">
+        <v>443104</v>
+      </c>
+      <c r="K81" s="2">
+        <v>442561</v>
+      </c>
+      <c r="L81" s="2">
+        <v>114335</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
         <v>50</v>
       </c>
-      <c r="B13" s="3">
-        <v>450</v>
-      </c>
-      <c r="C13" s="3">
-        <v>445</v>
-      </c>
-      <c r="D13" s="3">
-        <v>105</v>
+      <c r="B82" s="2">
+        <v>551449</v>
+      </c>
+      <c r="C82" s="2">
+        <v>360581</v>
+      </c>
+      <c r="D82" s="2">
+        <v>87970</v>
+      </c>
+      <c r="E82" s="2">
+        <v>65</v>
+      </c>
+      <c r="F82" s="2">
+        <v>495672</v>
+      </c>
+      <c r="G82" s="2">
+        <v>398396</v>
+      </c>
+      <c r="H82" s="2">
+        <v>105932</v>
+      </c>
+      <c r="I82" s="2">
+        <v>80</v>
+      </c>
+      <c r="J82" s="2">
+        <v>442251</v>
+      </c>
+      <c r="K82" s="2">
+        <v>443226</v>
+      </c>
+      <c r="L82" s="2">
+        <v>114523</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
         <v>51</v>
       </c>
-      <c r="B14" s="3">
-        <v>450</v>
-      </c>
-      <c r="C14" s="3">
-        <v>430</v>
-      </c>
-      <c r="D14" s="3">
-        <v>120</v>
+      <c r="B83" s="2">
+        <v>549898</v>
+      </c>
+      <c r="C83" s="2">
+        <v>360502</v>
+      </c>
+      <c r="D83" s="2">
+        <v>89600</v>
+      </c>
+      <c r="E83" s="2">
+        <v>66</v>
+      </c>
+      <c r="F83" s="2">
+        <v>484049</v>
+      </c>
+      <c r="G83" s="2">
+        <v>406980</v>
+      </c>
+      <c r="H83" s="2">
+        <v>108971</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
         <v>52</v>
       </c>
-      <c r="B15" s="3">
-        <v>435</v>
-      </c>
-      <c r="C15" s="3">
-        <v>472</v>
-      </c>
-      <c r="D15" s="3">
-        <v>93</v>
-      </c>
+      <c r="B84" s="2">
+        <v>547945</v>
+      </c>
+      <c r="C84" s="2">
+        <v>360255</v>
+      </c>
+      <c r="D84" s="2">
+        <v>91800</v>
+      </c>
+      <c r="E84" s="2">
+        <v>67</v>
+      </c>
+      <c r="F84" s="2">
+        <v>480027</v>
+      </c>
+      <c r="G84" s="2">
+        <v>409171</v>
+      </c>
+      <c r="H84" s="2">
+        <v>110802</v>
+      </c>
+      <c r="J84" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="K84" s="8"/>
+      <c r="L84" s="8"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
         <v>53</v>
       </c>
-      <c r="B16" s="3">
-        <v>429</v>
-      </c>
-      <c r="C16" s="3">
-        <v>456</v>
-      </c>
-      <c r="D16" s="3">
-        <v>115</v>
+      <c r="B85" s="2">
+        <v>547406</v>
+      </c>
+      <c r="C85" s="2">
+        <v>360006</v>
+      </c>
+      <c r="D85" s="2">
+        <v>92588</v>
+      </c>
+      <c r="E85" s="2">
+        <v>68</v>
+      </c>
+      <c r="F85" s="2">
+        <v>477970</v>
+      </c>
+      <c r="G85" s="2">
+        <v>411786</v>
+      </c>
+      <c r="H85" s="2">
+        <v>110244</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
         <v>54</v>
       </c>
-      <c r="B17" s="3">
-        <v>410</v>
-      </c>
-      <c r="C17" s="3">
-        <v>462</v>
-      </c>
-      <c r="D17" s="3">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>55</v>
-      </c>
-      <c r="B18" s="3">
-        <v>404</v>
-      </c>
-      <c r="C18" s="3">
-        <v>477</v>
-      </c>
-      <c r="D18" s="3">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>56</v>
-      </c>
-      <c r="B19" s="3">
-        <v>401</v>
-      </c>
-      <c r="C19" s="3">
-        <v>486</v>
-      </c>
-      <c r="D19" s="3">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>57</v>
-      </c>
-      <c r="B20" s="3">
-        <v>402</v>
-      </c>
-      <c r="C20" s="3">
-        <v>482</v>
-      </c>
-      <c r="D20" s="3">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>58</v>
-      </c>
-      <c r="B21" s="3">
-        <v>392</v>
-      </c>
-      <c r="C21" s="3">
-        <v>487</v>
-      </c>
-      <c r="D21" s="3">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>59</v>
-      </c>
-      <c r="B22" s="3">
-        <v>378</v>
-      </c>
-      <c r="C22" s="3">
-        <v>517</v>
-      </c>
-      <c r="D22" s="3">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <v>60</v>
-      </c>
-      <c r="B23" s="3">
-        <v>401</v>
-      </c>
-      <c r="C23" s="3">
-        <v>485</v>
-      </c>
-      <c r="D23" s="3">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>61</v>
-      </c>
-      <c r="B24" s="3">
-        <v>399</v>
-      </c>
-      <c r="C24" s="3">
-        <v>504</v>
-      </c>
-      <c r="D24" s="3">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
-        <v>62</v>
-      </c>
-      <c r="B25" s="3">
-        <v>387</v>
-      </c>
-      <c r="C25" s="3">
-        <v>509</v>
-      </c>
-      <c r="D25" s="3">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
-        <v>63</v>
-      </c>
-      <c r="B26" s="3">
-        <v>387</v>
-      </c>
-      <c r="C26" s="3">
-        <v>514</v>
-      </c>
-      <c r="D26" s="3">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
-        <v>64</v>
-      </c>
-      <c r="B27" s="3">
-        <v>364</v>
-      </c>
-      <c r="C27" s="3">
-        <v>538</v>
-      </c>
-      <c r="D27" s="3">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
-        <v>65</v>
-      </c>
-      <c r="B28" s="3">
-        <v>376</v>
-      </c>
-      <c r="C28" s="3">
-        <v>528</v>
-      </c>
-      <c r="D28" s="3">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
-        <v>66</v>
-      </c>
-      <c r="B29" s="3">
-        <v>369</v>
-      </c>
-      <c r="C29" s="3">
-        <v>524</v>
-      </c>
-      <c r="D29" s="3">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
-        <v>67</v>
-      </c>
-      <c r="B30" s="3">
-        <v>374</v>
-      </c>
-      <c r="C30" s="3">
-        <v>537</v>
-      </c>
-      <c r="D30" s="3">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
-        <v>68</v>
-      </c>
-      <c r="B31" s="3">
-        <v>365</v>
-      </c>
-      <c r="C31" s="3">
-        <v>555</v>
-      </c>
-      <c r="D31" s="3">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
+      <c r="B86" s="2">
+        <v>541625</v>
+      </c>
+      <c r="C86" s="2">
+        <v>364716</v>
+      </c>
+      <c r="D86" s="2">
+        <v>93659</v>
+      </c>
+      <c r="E86" s="2">
         <v>69</v>
       </c>
-      <c r="B32" s="3">
-        <v>362</v>
-      </c>
-      <c r="C32" s="3">
-        <v>556</v>
-      </c>
-      <c r="D32" s="3">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
-        <v>70</v>
-      </c>
-      <c r="B33" s="3">
-        <v>352</v>
-      </c>
-      <c r="C33" s="3">
-        <v>550</v>
-      </c>
-      <c r="D33" s="3">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
-        <v>71</v>
-      </c>
-      <c r="B34" s="3">
-        <v>353</v>
-      </c>
-      <c r="C34" s="3">
-        <v>557</v>
-      </c>
-      <c r="D34" s="3">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
-        <v>72</v>
-      </c>
-      <c r="B35" s="3">
-        <v>378</v>
-      </c>
-      <c r="C35" s="3">
-        <v>543</v>
-      </c>
-      <c r="D35" s="3">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
-        <v>73</v>
-      </c>
-      <c r="B36" s="3">
-        <v>378</v>
-      </c>
-      <c r="C36" s="3">
-        <v>525</v>
-      </c>
-      <c r="D36" s="3">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
-        <v>74</v>
-      </c>
-      <c r="B37" s="3">
-        <v>362</v>
-      </c>
-      <c r="C37" s="3">
-        <v>551</v>
-      </c>
-      <c r="D37" s="3">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
-        <v>75</v>
-      </c>
-      <c r="B38" s="3">
-        <v>386</v>
-      </c>
-      <c r="C38" s="3">
-        <v>537</v>
-      </c>
-      <c r="D38" s="3">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
-        <v>76</v>
-      </c>
-      <c r="B39" s="3">
-        <v>370</v>
-      </c>
-      <c r="C39" s="3">
-        <v>553</v>
-      </c>
-      <c r="D39" s="3">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
-        <v>77</v>
-      </c>
-      <c r="B40" s="3">
-        <v>354</v>
-      </c>
-      <c r="C40" s="3">
-        <v>557</v>
-      </c>
-      <c r="D40" s="3">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
-        <v>78</v>
-      </c>
-      <c r="B41" s="3">
-        <v>365</v>
-      </c>
-      <c r="C41" s="3">
-        <v>549</v>
-      </c>
-      <c r="D41" s="3">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
-        <v>79</v>
-      </c>
-      <c r="B42" s="3">
-        <v>344</v>
-      </c>
-      <c r="C42" s="3">
-        <v>570</v>
-      </c>
-      <c r="D42" s="3">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
-        <v>80</v>
-      </c>
-      <c r="B43" s="3">
-        <v>326</v>
-      </c>
-      <c r="C43" s="3">
-        <v>591</v>
-      </c>
-      <c r="D43" s="3">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-      <c r="B44" t="s">
-        <v>0</v>
-      </c>
-      <c r="C44" t="s">
-        <v>0</v>
-      </c>
-      <c r="D44" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="3"/>
-      <c r="B46" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
-        <v>40</v>
-      </c>
-      <c r="B47" s="3">
-        <v>511</v>
-      </c>
-      <c r="C47" s="3">
-        <v>417</v>
-      </c>
-      <c r="D47" s="3">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
-        <v>41</v>
-      </c>
-      <c r="B48" s="3">
-        <v>528</v>
-      </c>
-      <c r="C48" s="3">
-        <v>407</v>
-      </c>
-      <c r="D48" s="3">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
-        <v>42</v>
-      </c>
-      <c r="B49" s="3">
-        <v>526</v>
-      </c>
-      <c r="C49" s="3">
-        <v>386</v>
-      </c>
-      <c r="D49" s="3">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="3">
-        <v>43</v>
-      </c>
-      <c r="B50" s="3">
-        <v>526</v>
-      </c>
-      <c r="C50" s="3">
-        <v>406</v>
-      </c>
-      <c r="D50" s="3">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="3">
-        <v>44</v>
-      </c>
-      <c r="B51" s="3">
-        <v>511</v>
-      </c>
-      <c r="C51" s="3">
-        <v>379</v>
-      </c>
-      <c r="D51" s="3">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="3">
-        <v>45</v>
-      </c>
-      <c r="B52" s="3">
-        <v>546</v>
-      </c>
-      <c r="C52" s="3">
-        <v>387</v>
-      </c>
-      <c r="D52" s="3">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="3">
-        <v>46</v>
-      </c>
-      <c r="B53" s="3">
-        <v>515</v>
-      </c>
-      <c r="C53" s="3">
-        <v>389</v>
-      </c>
-      <c r="D53" s="3">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="3">
-        <v>47</v>
-      </c>
-      <c r="B54" s="3">
-        <v>518</v>
-      </c>
-      <c r="C54" s="3">
-        <v>387</v>
-      </c>
-      <c r="D54" s="3">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="3">
-        <v>48</v>
-      </c>
-      <c r="B55" s="3">
-        <v>535</v>
-      </c>
-      <c r="C55" s="3">
-        <v>377</v>
-      </c>
-      <c r="D55" s="3">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="3">
-        <v>49</v>
-      </c>
-      <c r="B56" s="3">
-        <v>523</v>
-      </c>
-      <c r="C56" s="3">
-        <v>382</v>
-      </c>
-      <c r="D56" s="3">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="3">
-        <v>50</v>
-      </c>
-      <c r="B57" s="3">
-        <v>506</v>
-      </c>
-      <c r="C57" s="3">
-        <v>390</v>
-      </c>
-      <c r="D57" s="3">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="3">
-        <v>51</v>
-      </c>
-      <c r="B58" s="3">
-        <v>518</v>
-      </c>
-      <c r="C58" s="3">
-        <v>390</v>
-      </c>
-      <c r="D58" s="3">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="3">
-        <v>52</v>
-      </c>
-      <c r="B59" s="3">
-        <v>489</v>
-      </c>
-      <c r="C59" s="3">
-        <v>399</v>
-      </c>
-      <c r="D59" s="3">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="3">
-        <v>53</v>
-      </c>
-      <c r="B60" s="3">
-        <v>504</v>
-      </c>
-      <c r="C60" s="3">
-        <v>388</v>
-      </c>
-      <c r="D60" s="3">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="3">
-        <v>54</v>
-      </c>
-      <c r="B61" s="3">
-        <v>510</v>
-      </c>
-      <c r="C61" s="3">
-        <v>407</v>
-      </c>
-      <c r="D61" s="3">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="3">
-        <v>55</v>
-      </c>
-      <c r="B62" s="3">
-        <v>508</v>
-      </c>
-      <c r="C62" s="3">
-        <v>398</v>
-      </c>
-      <c r="D62" s="3">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="3">
-        <v>56</v>
-      </c>
-      <c r="B63" s="3">
-        <v>499</v>
-      </c>
-      <c r="C63" s="3">
-        <v>413</v>
-      </c>
-      <c r="D63" s="3">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="3">
-        <v>57</v>
-      </c>
-      <c r="B64" s="3">
-        <v>473</v>
-      </c>
-      <c r="C64" s="3">
-        <v>404</v>
-      </c>
-      <c r="D64" s="3">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="3">
-        <v>58</v>
-      </c>
-      <c r="B65" s="3">
-        <v>465</v>
-      </c>
-      <c r="C65" s="3">
-        <v>409</v>
-      </c>
-      <c r="D65" s="3">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="3">
-        <v>59</v>
-      </c>
-      <c r="B66" s="3">
-        <v>474</v>
-      </c>
-      <c r="C66" s="3">
-        <v>410</v>
-      </c>
-      <c r="D66" s="3">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="3">
-        <v>60</v>
-      </c>
-      <c r="B67" s="3">
-        <v>459</v>
-      </c>
-      <c r="C67" s="3">
-        <v>428</v>
-      </c>
-      <c r="D67" s="3">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="3">
-        <v>61</v>
-      </c>
-      <c r="B68" s="3">
-        <v>443</v>
-      </c>
-      <c r="C68" s="3">
-        <v>443</v>
-      </c>
-      <c r="D68" s="3">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="3">
-        <v>62</v>
-      </c>
-      <c r="B69" s="3">
-        <v>433</v>
-      </c>
-      <c r="C69" s="3">
-        <v>448</v>
-      </c>
-      <c r="D69" s="3">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="3">
-        <v>63</v>
-      </c>
-      <c r="B70" s="3">
-        <v>445</v>
-      </c>
-      <c r="C70" s="3">
-        <v>443</v>
-      </c>
-      <c r="D70" s="3">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="3">
-        <v>64</v>
-      </c>
-      <c r="B71" s="3">
-        <v>490</v>
-      </c>
-      <c r="C71" s="3">
-        <v>404</v>
-      </c>
-      <c r="D71" s="3">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="3">
-        <v>65</v>
-      </c>
-      <c r="B72" s="3">
-        <v>455</v>
-      </c>
-      <c r="C72" s="3">
-        <v>448</v>
-      </c>
-      <c r="D72" s="3">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="3">
-        <v>66</v>
-      </c>
-      <c r="B73" s="3">
-        <v>411</v>
-      </c>
-      <c r="C73" s="3">
-        <v>464</v>
-      </c>
-      <c r="D73" s="3">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="3">
-        <v>67</v>
-      </c>
-      <c r="B74" s="3">
-        <v>441</v>
-      </c>
-      <c r="C74" s="3">
-        <v>441</v>
-      </c>
-      <c r="D74" s="3">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="3">
-        <v>68</v>
-      </c>
-      <c r="B75" s="3">
-        <v>415</v>
-      </c>
-      <c r="C75" s="3">
-        <v>466</v>
-      </c>
-      <c r="D75" s="3">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="3">
-        <v>69</v>
-      </c>
-      <c r="B76" s="3">
-        <v>419</v>
-      </c>
-      <c r="C76" s="3">
-        <v>490</v>
-      </c>
-      <c r="D76" s="3">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="3">
-        <v>70</v>
-      </c>
-      <c r="B77" s="3">
-        <v>385</v>
-      </c>
-      <c r="C77" s="3">
-        <v>490</v>
-      </c>
-      <c r="D77" s="3">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="3">
-        <v>71</v>
-      </c>
-      <c r="B78" s="3">
-        <v>372</v>
-      </c>
-      <c r="C78" s="3">
-        <v>510</v>
-      </c>
-      <c r="D78" s="3">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="3">
-        <v>72</v>
-      </c>
-      <c r="B79" s="3">
-        <v>388</v>
-      </c>
-      <c r="C79" s="3">
-        <v>502</v>
-      </c>
-      <c r="D79" s="3">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="3">
-        <v>73</v>
-      </c>
-      <c r="B80" s="3">
-        <v>373</v>
-      </c>
-      <c r="C80" s="3">
-        <v>528</v>
-      </c>
-      <c r="D80" s="3">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="3">
-        <v>74</v>
-      </c>
-      <c r="B81" s="3">
-        <v>386</v>
-      </c>
-      <c r="C81" s="3">
-        <v>510</v>
-      </c>
-      <c r="D81" s="3">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="3">
-        <v>75</v>
-      </c>
-      <c r="B82" s="3">
-        <v>380</v>
-      </c>
-      <c r="C82" s="3">
-        <v>518</v>
-      </c>
-      <c r="D82" s="3">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="3">
-        <v>76</v>
-      </c>
-      <c r="B83" s="3">
-        <v>399</v>
-      </c>
-      <c r="C83" s="3">
-        <v>492</v>
-      </c>
-      <c r="D83" s="3">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="3">
-        <v>77</v>
-      </c>
-      <c r="B84" s="3">
-        <v>389</v>
-      </c>
-      <c r="C84" s="3">
-        <v>500</v>
-      </c>
-      <c r="D84" s="3">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="3">
-        <v>78</v>
-      </c>
-      <c r="B85" s="3">
-        <v>407</v>
-      </c>
-      <c r="C85" s="3">
-        <v>485</v>
-      </c>
-      <c r="D85" s="3">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="3">
-        <v>79</v>
-      </c>
-      <c r="B86" s="3">
-        <v>404</v>
-      </c>
-      <c r="C86" s="3">
-        <v>487</v>
-      </c>
-      <c r="D86" s="3">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="3">
-        <v>80</v>
-      </c>
-      <c r="B87" s="3">
-        <v>397</v>
-      </c>
-      <c r="C87" s="3">
-        <v>480</v>
-      </c>
-      <c r="D87" s="3">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B88" t="s">
-        <v>0</v>
-      </c>
-      <c r="C88" t="s">
-        <v>0</v>
-      </c>
-      <c r="D88" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="3"/>
-      <c r="B90" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D90" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="3">
-        <v>40</v>
-      </c>
-      <c r="B91" s="3">
-        <v>535</v>
-      </c>
-      <c r="C91" s="3">
-        <v>392</v>
-      </c>
-      <c r="D91" s="3">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="3">
-        <v>41</v>
-      </c>
-      <c r="B92" s="3">
-        <v>553</v>
-      </c>
-      <c r="C92" s="3">
-        <v>371</v>
-      </c>
-      <c r="D92" s="3">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="3">
-        <v>42</v>
-      </c>
-      <c r="B93" s="3">
-        <v>569</v>
-      </c>
-      <c r="C93" s="3">
-        <v>362</v>
-      </c>
-      <c r="D93" s="3">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="3">
-        <v>43</v>
-      </c>
-      <c r="B94" s="3">
-        <v>565</v>
-      </c>
-      <c r="C94" s="3">
-        <v>347</v>
-      </c>
-      <c r="D94" s="3">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="3">
-        <v>44</v>
-      </c>
-      <c r="B95" s="3">
-        <v>548</v>
-      </c>
-      <c r="C95" s="3">
-        <v>350</v>
-      </c>
-      <c r="D95" s="3">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="3">
-        <v>45</v>
-      </c>
-      <c r="B96" s="3">
-        <v>585</v>
-      </c>
-      <c r="C96" s="3">
-        <v>338</v>
-      </c>
-      <c r="D96" s="3">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="3">
-        <v>46</v>
-      </c>
-      <c r="B97" s="3">
-        <v>562</v>
-      </c>
-      <c r="C97" s="3">
-        <v>351</v>
-      </c>
-      <c r="D97" s="3">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="3">
-        <v>47</v>
-      </c>
-      <c r="B98" s="3">
-        <v>551</v>
-      </c>
-      <c r="C98" s="3">
-        <v>349</v>
-      </c>
-      <c r="D98" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="3">
-        <v>48</v>
-      </c>
-      <c r="B99" s="3">
-        <v>542</v>
-      </c>
-      <c r="C99" s="3">
-        <v>353</v>
-      </c>
-      <c r="D99" s="3">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="3">
-        <v>49</v>
-      </c>
-      <c r="B100" s="3">
-        <v>553</v>
-      </c>
-      <c r="C100" s="3">
-        <v>370</v>
-      </c>
-      <c r="D100" s="3">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="3">
-        <v>50</v>
-      </c>
-      <c r="B101" s="3">
-        <v>551</v>
-      </c>
-      <c r="C101" s="3">
-        <v>346</v>
-      </c>
-      <c r="D101" s="3">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="3">
-        <v>51</v>
-      </c>
-      <c r="B102" s="3">
-        <v>560</v>
-      </c>
-      <c r="C102" s="3">
-        <v>353</v>
-      </c>
-      <c r="D102" s="3">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="3">
-        <v>52</v>
-      </c>
-      <c r="B103" s="3">
-        <v>542</v>
-      </c>
-      <c r="C103" s="3">
-        <v>352</v>
-      </c>
-      <c r="D103" s="3">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="3">
-        <v>53</v>
-      </c>
-      <c r="B104" s="3">
-        <v>578</v>
-      </c>
-      <c r="C104" s="3">
-        <v>325</v>
-      </c>
-      <c r="D104" s="3">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="3">
-        <v>54</v>
-      </c>
-      <c r="B105" s="3">
-        <v>565</v>
-      </c>
-      <c r="C105" s="3">
-        <v>356</v>
-      </c>
-      <c r="D105" s="3">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="3">
-        <v>55</v>
-      </c>
-      <c r="B106" s="3">
-        <v>524</v>
-      </c>
-      <c r="C106" s="3">
-        <v>379</v>
-      </c>
-      <c r="D106" s="3">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="3">
-        <v>56</v>
-      </c>
-      <c r="B107" s="3">
-        <v>536</v>
-      </c>
-      <c r="C107" s="3">
-        <v>357</v>
-      </c>
-      <c r="D107" s="3">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="3">
-        <v>57</v>
-      </c>
-      <c r="B108" s="3">
-        <v>536</v>
-      </c>
-      <c r="C108" s="3">
-        <v>371</v>
-      </c>
-      <c r="D108" s="3">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="3">
-        <v>58</v>
-      </c>
-      <c r="B109" s="3">
-        <v>530</v>
-      </c>
-      <c r="C109" s="3">
-        <v>371</v>
-      </c>
-      <c r="D109" s="3">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="3">
-        <v>59</v>
-      </c>
-      <c r="B110" s="3">
-        <v>529</v>
-      </c>
-      <c r="C110" s="3">
-        <v>382</v>
-      </c>
-      <c r="D110" s="3">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="3">
-        <v>60</v>
-      </c>
-      <c r="B111" s="3">
-        <v>519</v>
-      </c>
-      <c r="C111" s="3">
-        <v>371</v>
-      </c>
-      <c r="D111" s="3">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="3">
-        <v>61</v>
-      </c>
-      <c r="B112" s="3">
-        <v>526</v>
-      </c>
-      <c r="C112" s="3">
-        <v>373</v>
-      </c>
-      <c r="D112" s="3">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="3">
-        <v>62</v>
-      </c>
-      <c r="B113" s="3">
-        <v>494</v>
-      </c>
-      <c r="C113" s="3">
-        <v>384</v>
-      </c>
-      <c r="D113" s="3">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="3">
-        <v>63</v>
-      </c>
-      <c r="B114" s="3">
-        <v>498</v>
-      </c>
-      <c r="C114" s="3">
-        <v>404</v>
-      </c>
-      <c r="D114" s="3">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="3">
-        <v>64</v>
-      </c>
-      <c r="B115" s="3">
-        <v>501</v>
-      </c>
-      <c r="C115" s="3">
-        <v>402</v>
-      </c>
-      <c r="D115" s="3">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="3">
-        <v>65</v>
-      </c>
-      <c r="B116" s="3">
-        <v>487</v>
-      </c>
-      <c r="C116" s="3">
-        <v>411</v>
-      </c>
-      <c r="D116" s="3">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="3">
-        <v>66</v>
-      </c>
-      <c r="B117" s="3">
-        <v>457</v>
-      </c>
-      <c r="C117" s="3">
-        <v>436</v>
-      </c>
-      <c r="D117" s="3">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="3">
-        <v>67</v>
-      </c>
-      <c r="B118" s="3">
-        <v>483</v>
-      </c>
-      <c r="C118" s="3">
-        <v>415</v>
-      </c>
-      <c r="D118" s="3">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="3">
-        <v>68</v>
-      </c>
-      <c r="B119" s="3">
-        <v>473</v>
-      </c>
-      <c r="C119" s="3">
-        <v>403</v>
-      </c>
-      <c r="D119" s="3">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="3">
-        <v>69</v>
-      </c>
-      <c r="B120" s="3">
-        <v>434</v>
-      </c>
-      <c r="C120" s="3">
-        <v>450</v>
-      </c>
-      <c r="D120" s="3">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="3">
-        <v>70</v>
-      </c>
-      <c r="B121" s="3">
-        <v>455</v>
-      </c>
-      <c r="C121" s="3">
-        <v>435</v>
-      </c>
-      <c r="D121" s="3">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="3">
-        <v>71</v>
-      </c>
-      <c r="B122" s="3">
-        <v>460</v>
-      </c>
-      <c r="C122" s="3">
-        <v>413</v>
-      </c>
-      <c r="D122" s="3">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="3">
-        <v>72</v>
-      </c>
-      <c r="B123" s="3">
-        <v>456</v>
-      </c>
-      <c r="C123" s="3">
-        <v>436</v>
-      </c>
-      <c r="D123" s="3">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="3">
-        <v>73</v>
-      </c>
-      <c r="B124" s="3">
-        <v>447</v>
-      </c>
-      <c r="C124" s="3">
-        <v>439</v>
-      </c>
-      <c r="D124" s="3">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="3">
-        <v>74</v>
-      </c>
-      <c r="B125" s="3">
-        <v>467</v>
-      </c>
-      <c r="C125" s="3">
-        <v>426</v>
-      </c>
-      <c r="D125" s="3">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="3">
-        <v>75</v>
-      </c>
-      <c r="B126" s="3">
-        <v>435</v>
-      </c>
-      <c r="C126" s="3">
-        <v>446</v>
-      </c>
-      <c r="D126" s="3">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="3">
-        <v>76</v>
-      </c>
-      <c r="B127" s="3">
-        <v>437</v>
-      </c>
-      <c r="C127" s="3">
-        <v>438</v>
-      </c>
-      <c r="D127" s="3">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="3">
-        <v>77</v>
-      </c>
-      <c r="B128" s="3">
-        <v>434</v>
-      </c>
-      <c r="C128" s="3">
-        <v>460</v>
-      </c>
-      <c r="D128" s="3">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="3">
-        <v>78</v>
-      </c>
-      <c r="B129" s="3">
-        <v>443</v>
-      </c>
-      <c r="C129" s="3">
-        <v>441</v>
-      </c>
-      <c r="D129" s="3">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="3">
-        <v>79</v>
-      </c>
-      <c r="B130" s="3">
-        <v>419</v>
-      </c>
-      <c r="C130" s="3">
-        <v>477</v>
-      </c>
-      <c r="D130" s="3">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="3">
-        <v>80</v>
-      </c>
-      <c r="B131" s="3">
-        <v>451</v>
-      </c>
-      <c r="C131" s="3">
-        <v>432</v>
-      </c>
-      <c r="D131" s="3">
-        <v>117</v>
+      <c r="F86" s="2">
+        <v>452249</v>
+      </c>
+      <c r="G86" s="2">
+        <v>432314</v>
+      </c>
+      <c r="H86" s="2">
+        <v>115437</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A89:D89"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A45:D45"/>
+  <mergeCells count="7">
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="J50:L50"/>
+    <mergeCell ref="J84:L84"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>

--- a/tienPat.xlsx
+++ b/tienPat.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="15">
   <si>
     <t>Victoires</t>
   </si>
@@ -41,12 +41,33 @@
   <si>
     <t>Nb de Tests par IA: 1,000,000</t>
   </si>
+  <si>
+    <t>Parties contre l'AI Optimal (40%)</t>
+  </si>
+  <si>
+    <t># de la Partie</t>
+  </si>
+  <si>
+    <t>Résultat de l'humain</t>
+  </si>
+  <si>
+    <t>Défaite</t>
+  </si>
+  <si>
+    <t>Partie Nulle</t>
+  </si>
+  <si>
+    <t>Victoire</t>
+  </si>
+  <si>
+    <t>Victoire (Par Blackjack)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,6 +78,23 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -76,7 +114,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -136,11 +174,117 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -150,16 +294,40 @@
     <xf numFmtId="9" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1128,11 +1296,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="129763968"/>
-        <c:axId val="129769856"/>
+        <c:axId val="141355648"/>
+        <c:axId val="141361920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="129763968"/>
+        <c:axId val="141355648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1166,7 +1334,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129769856"/>
+        <c:crossAx val="141361920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1174,7 +1342,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="129769856"/>
+        <c:axId val="141361920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1204,7 +1372,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129763968"/>
+        <c:crossAx val="141355648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2184,11 +2352,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="129814528"/>
-        <c:axId val="129816064"/>
+        <c:axId val="141415552"/>
+        <c:axId val="141417472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="129814528"/>
+        <c:axId val="141415552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2224,7 +2392,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129816064"/>
+        <c:crossAx val="141417472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2232,7 +2400,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="129816064"/>
+        <c:axId val="141417472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2267,7 +2435,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129814528"/>
+        <c:crossAx val="141415552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3250,11 +3418,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="132744320"/>
-        <c:axId val="132745856"/>
+        <c:axId val="142507392"/>
+        <c:axId val="142509568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="132744320"/>
+        <c:axId val="142507392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3290,7 +3458,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="132745856"/>
+        <c:crossAx val="142509568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3298,7 +3466,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="132745856"/>
+        <c:axId val="142509568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3335,7 +3503,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="132744320"/>
+        <c:crossAx val="142507392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4228,6 +4396,7 @@
           </c:val>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -4237,21 +4406,45 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="133800320"/>
-        <c:axId val="133801856"/>
+        <c:axId val="142563200"/>
+        <c:axId val="142564736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="133800320"/>
+        <c:axId val="142563200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-CA" sz="1000" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>% de niveau de risque du nouvel IA</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-CA" sz="1000">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133801856"/>
+        <c:crossAx val="142564736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4259,18 +4452,44 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="133801856"/>
+        <c:axId val="142564736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-CA" sz="1000" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t>Nombre de Tests</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-CA" sz="1000">
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133800320"/>
+        <c:crossAx val="142563200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4389,13 +4608,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>66676</xdr:colOff>
+      <xdr:colOff>85725</xdr:colOff>
       <xdr:row>121</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
+      <xdr:colOff>790575</xdr:colOff>
       <xdr:row>135</xdr:row>
       <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
@@ -4418,12 +4637,12 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="6591300" cy="436786"/>
+    <xdr:ext cx="4905375" cy="3364639"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="ZoneTexte 3"/>
@@ -4431,28 +4650,25 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="561975" y="19650074"/>
-          <a:ext cx="6591300" cy="436786"/>
+          <a:off x="95250" y="19611974"/>
+          <a:ext cx="4905375" cy="3364639"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
         </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+          <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -4462,12 +4678,105 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
+            <a:rPr lang="fr-CA" sz="1100" b="1" u="sng"/>
+            <a:t>Paramètres</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" b="1" u="sng" baseline="0"/>
+            <a:t> de l'Analyse</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" b="1" baseline="0"/>
+            <a:t>:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" baseline="0"/>
+            <a:t>- Chaque nouvel AI (de 40% de risque jusqu'à 80%) affronte les 3 anciens AI (50, 65 et 80%) un million de fois chaque.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" baseline="0"/>
+            <a:t>- Chaque AI, anciens comme nouveaux, compte les cartes.</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-CA" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
             <a:rPr lang="fr-CA" sz="1100"/>
+            <a:t>- Le</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" baseline="0"/>
+            <a:t> résultat d'une partie peut se terminé en Victoire, Défaite ou partie nulle.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-CA" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" b="1" u="sng" baseline="0"/>
             <a:t>Analyse:</a:t>
           </a:r>
         </a:p>
         <a:p>
-          <a:endParaRPr lang="fr-CA" sz="1100"/>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" b="0" u="none" baseline="0"/>
+            <a:t>Selon le graphique combinant tous les victoires de chacun des nouveaux IA contre les anciens (voir ci-dessous), l'IA le plus performant serait l'IA à 40% de biveau de risque, soit, le plus prudent de tous les IAs, avec </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" b="1" i="1" u="none" baseline="0"/>
+            <a:t>1563434</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" b="0" u="none" baseline="0"/>
+            <a:t> Victoires sur 3 millions. Cela équivaut à un ratio de victoire de 52,11%.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-CA" sz="1100" b="0" u="none" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" b="1" u="sng" baseline="0"/>
+            <a:t>Mes parties jouées contre l'IA optimal</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" b="0" u="none" baseline="0"/>
+            <a:t>Je vais jouer 12 parties contre l'IA optimal, soit de 40% de niveau de risque.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" b="0" u="none" baseline="0"/>
+            <a:t>Les résultats se trouve dans le tableau ci-joint à droite.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-CA" sz="1100" b="0" u="none" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" b="0" u="none" baseline="0"/>
+            <a:t>Mes Victoires: 5</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" b="0" u="none" baseline="0"/>
+            <a:t>Mes Défaites: 5</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100" b="0" u="none" baseline="0"/>
+            <a:t>Parties Nulles: 2</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4763,10 +5072,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M86"/>
+  <dimension ref="A1:M117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D107" sqref="D107"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J119" sqref="J119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4785,12 +5094,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="7"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="16"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -5301,11 +5610,11 @@
       <c r="H17" s="2">
         <v>97383</v>
       </c>
-      <c r="J17" s="8" t="s">
+      <c r="J17" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
@@ -5868,11 +6177,11 @@
       <c r="H50" s="2">
         <v>113738</v>
       </c>
-      <c r="J50" s="8" t="s">
+      <c r="J50" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K50" s="8"/>
-      <c r="L50" s="8"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
@@ -6436,11 +6745,11 @@
       <c r="H84" s="2">
         <v>110802</v>
       </c>
-      <c r="J84" s="8" t="s">
+      <c r="J84" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K84" s="8"/>
-      <c r="L84" s="8"/>
+      <c r="K84" s="5"/>
+      <c r="L84" s="5"/>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
@@ -6494,15 +6803,181 @@
         <v>115437</v>
       </c>
     </row>
+    <row r="103" spans="9:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="104" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I104" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J104" s="7"/>
+      <c r="K104" s="7"/>
+      <c r="L104" s="8"/>
+    </row>
+    <row r="105" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I105" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J105" s="5"/>
+      <c r="K105" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L105" s="10"/>
+    </row>
+    <row r="106" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I106" s="9">
+        <v>1</v>
+      </c>
+      <c r="J106" s="5"/>
+      <c r="K106" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L106" s="10"/>
+    </row>
+    <row r="107" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I107" s="9">
+        <v>2</v>
+      </c>
+      <c r="J107" s="5"/>
+      <c r="K107" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L107" s="10"/>
+    </row>
+    <row r="108" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I108" s="9">
+        <v>3</v>
+      </c>
+      <c r="J108" s="5"/>
+      <c r="K108" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L108" s="10"/>
+    </row>
+    <row r="109" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I109" s="9">
+        <v>4</v>
+      </c>
+      <c r="J109" s="5"/>
+      <c r="K109" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L109" s="10"/>
+    </row>
+    <row r="110" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I110" s="9">
+        <v>5</v>
+      </c>
+      <c r="J110" s="5"/>
+      <c r="K110" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L110" s="10"/>
+    </row>
+    <row r="111" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I111" s="9">
+        <v>6</v>
+      </c>
+      <c r="J111" s="5"/>
+      <c r="K111" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L111" s="10"/>
+    </row>
+    <row r="112" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I112" s="9">
+        <v>7</v>
+      </c>
+      <c r="J112" s="5"/>
+      <c r="K112" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L112" s="10"/>
+    </row>
+    <row r="113" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I113" s="9">
+        <v>8</v>
+      </c>
+      <c r="J113" s="5"/>
+      <c r="K113" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L113" s="10"/>
+    </row>
+    <row r="114" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I114" s="9">
+        <v>9</v>
+      </c>
+      <c r="J114" s="5"/>
+      <c r="K114" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L114" s="10"/>
+    </row>
+    <row r="115" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I115" s="9">
+        <v>10</v>
+      </c>
+      <c r="J115" s="5"/>
+      <c r="K115" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L115" s="10"/>
+    </row>
+    <row r="116" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I116" s="9">
+        <v>11</v>
+      </c>
+      <c r="J116" s="5"/>
+      <c r="K116" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L116" s="10"/>
+    </row>
+    <row r="117" spans="9:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I117" s="11">
+        <v>12</v>
+      </c>
+      <c r="J117" s="12"/>
+      <c r="K117" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="L117" s="13"/>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="34">
+    <mergeCell ref="I104:L104"/>
+    <mergeCell ref="I113:J113"/>
+    <mergeCell ref="I114:J114"/>
+    <mergeCell ref="I115:J115"/>
+    <mergeCell ref="I116:J116"/>
+    <mergeCell ref="I117:J117"/>
+    <mergeCell ref="I108:J108"/>
+    <mergeCell ref="I109:J109"/>
+    <mergeCell ref="I110:J110"/>
+    <mergeCell ref="I111:J111"/>
+    <mergeCell ref="I112:J112"/>
+    <mergeCell ref="K117:L117"/>
+    <mergeCell ref="K116:L116"/>
+    <mergeCell ref="K115:L115"/>
+    <mergeCell ref="K114:L114"/>
+    <mergeCell ref="K113:L113"/>
+    <mergeCell ref="K109:L109"/>
+    <mergeCell ref="K108:L108"/>
+    <mergeCell ref="K110:L110"/>
+    <mergeCell ref="K111:L111"/>
+    <mergeCell ref="K112:L112"/>
+    <mergeCell ref="I105:J105"/>
+    <mergeCell ref="K105:L105"/>
+    <mergeCell ref="I106:J106"/>
+    <mergeCell ref="K106:L106"/>
+    <mergeCell ref="K107:L107"/>
+    <mergeCell ref="I107:J107"/>
+    <mergeCell ref="J84:L84"/>
     <mergeCell ref="A70:D70"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A36:D36"/>
     <mergeCell ref="E1:H1"/>
     <mergeCell ref="J17:L17"/>
     <mergeCell ref="J50:L50"/>
-    <mergeCell ref="J84:L84"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
